--- a/data/trans_dic/P36B08_R-Edad-trans_dic.xlsx
+++ b/data/trans_dic/P36B08_R-Edad-trans_dic.xlsx
@@ -534,7 +534,7 @@
     <row r="1">
       <c r="A1" s="1" t="inlineStr">
         <is>
-          <t>Población que consumen 3 veces o más al dia verduras, ensaladas y hortalizas</t>
+          <t>Población que consumen 3 veces o más al día verduras, ensaladas y hortalizas</t>
         </is>
       </c>
       <c r="B1" s="2" t="n"/>
@@ -724,62 +724,62 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>45,87; 54,58</t>
+          <t>45,53; 54,39</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>46,85; 56,04</t>
+          <t>46,1; 55,99</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>56,09; 66,05</t>
+          <t>56,49; 66,82</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>85,11; 95,22</t>
+          <t>85,27; 95,09</t>
         </is>
       </c>
       <c r="G5" s="2" t="inlineStr">
         <is>
-          <t>48,31; 57,09</t>
+          <t>48,65; 57,58</t>
         </is>
       </c>
       <c r="H5" s="2" t="inlineStr">
         <is>
-          <t>58,69; 68,18</t>
+          <t>59,16; 68,04</t>
         </is>
       </c>
       <c r="I5" s="2" t="inlineStr">
         <is>
-          <t>57,91; 67,88</t>
+          <t>58,05; 67,5</t>
         </is>
       </c>
       <c r="J5" s="2" t="inlineStr">
         <is>
-          <t>86,31; 94,93</t>
+          <t>87,12; 95,03</t>
         </is>
       </c>
       <c r="K5" s="2" t="inlineStr">
         <is>
-          <t>48,4; 54,46</t>
+          <t>48,19; 54,46</t>
         </is>
       </c>
       <c r="L5" s="2" t="inlineStr">
         <is>
-          <t>54,11; 60,67</t>
+          <t>54,12; 60,38</t>
         </is>
       </c>
       <c r="M5" s="2" t="inlineStr">
         <is>
-          <t>58,86; 65,63</t>
+          <t>58,66; 65,67</t>
         </is>
       </c>
       <c r="N5" s="2" t="inlineStr">
         <is>
-          <t>87,55; 94,15</t>
+          <t>87,81; 94,15</t>
         </is>
       </c>
     </row>
@@ -864,62 +864,62 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>58,21; 65,53</t>
+          <t>58,44; 65,61</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>63,4; 70,65</t>
+          <t>63,18; 70,84</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>65,07; 72,45</t>
+          <t>64,66; 72,08</t>
         </is>
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>91,54; 97,1</t>
+          <t>91,54; 97,19</t>
         </is>
       </c>
       <c r="G7" s="2" t="inlineStr">
         <is>
-          <t>65,18; 72,41</t>
+          <t>65,34; 72,89</t>
         </is>
       </c>
       <c r="H7" s="2" t="inlineStr">
         <is>
-          <t>71,83; 79,18</t>
+          <t>71,8; 78,64</t>
         </is>
       </c>
       <c r="I7" s="2" t="inlineStr">
         <is>
-          <t>68,4; 75,82</t>
+          <t>68,6; 75,84</t>
         </is>
       </c>
       <c r="J7" s="2" t="inlineStr">
         <is>
-          <t>92,79; 96,98</t>
+          <t>92,5; 97,03</t>
         </is>
       </c>
       <c r="K7" s="2" t="inlineStr">
         <is>
-          <t>62,51; 67,76</t>
+          <t>62,57; 67,79</t>
         </is>
       </c>
       <c r="L7" s="2" t="inlineStr">
         <is>
-          <t>68,19; 73,47</t>
+          <t>68,53; 73,36</t>
         </is>
       </c>
       <c r="M7" s="2" t="inlineStr">
         <is>
-          <t>67,67; 72,88</t>
+          <t>67,7; 72,96</t>
         </is>
       </c>
       <c r="N7" s="2" t="inlineStr">
         <is>
-          <t>93,26; 96,61</t>
+          <t>92,88; 96,54</t>
         </is>
       </c>
     </row>
@@ -1004,62 +1004,62 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>57,55; 65,11</t>
+          <t>57,09; 65,16</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>69,76; 76,67</t>
+          <t>69,65; 76,66</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>67,39; 74,75</t>
+          <t>67,61; 74,62</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>91,42; 95,75</t>
+          <t>91,46; 95,9</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
         <is>
-          <t>68,74; 75,76</t>
+          <t>68,88; 75,81</t>
         </is>
       </c>
       <c r="H9" s="2" t="inlineStr">
         <is>
-          <t>77,84; 83,87</t>
+          <t>77,57; 83,76</t>
         </is>
       </c>
       <c r="I9" s="2" t="inlineStr">
         <is>
-          <t>74,57; 81,3</t>
+          <t>74,77; 81,21</t>
         </is>
       </c>
       <c r="J9" s="2" t="inlineStr">
         <is>
-          <t>94,17; 97,18</t>
+          <t>94,15; 97,21</t>
         </is>
       </c>
       <c r="K9" s="2" t="inlineStr">
         <is>
-          <t>64,23; 69,59</t>
+          <t>64,46; 69,69</t>
         </is>
       </c>
       <c r="L9" s="2" t="inlineStr">
         <is>
-          <t>74,84; 79,47</t>
+          <t>75,01; 79,7</t>
         </is>
       </c>
       <c r="M9" s="2" t="inlineStr">
         <is>
-          <t>72,01; 76,75</t>
+          <t>71,93; 76,87</t>
         </is>
       </c>
       <c r="N9" s="2" t="inlineStr">
         <is>
-          <t>93,5; 96,21</t>
+          <t>93,36; 96,08</t>
         </is>
       </c>
     </row>
@@ -1144,62 +1144,62 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>59,75; 68,49</t>
+          <t>60,38; 68,98</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>68,91; 76,4</t>
+          <t>68,6; 76,27</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>67,37; 74,94</t>
+          <t>67,13; 74,47</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>93,04; 96,67</t>
+          <t>93,0; 96,67</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
         <is>
-          <t>73,37; 80,76</t>
+          <t>73,22; 80,56</t>
         </is>
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>79,34; 85,92</t>
+          <t>79,68; 86,0</t>
         </is>
       </c>
       <c r="I11" s="2" t="inlineStr">
         <is>
-          <t>77,18; 83,55</t>
+          <t>76,97; 83,55</t>
         </is>
       </c>
       <c r="J11" s="2" t="inlineStr">
         <is>
-          <t>95,03; 97,25</t>
+          <t>94,98; 97,24</t>
         </is>
       </c>
       <c r="K11" s="2" t="inlineStr">
         <is>
-          <t>67,84; 73,43</t>
+          <t>68,2; 73,74</t>
         </is>
       </c>
       <c r="L11" s="2" t="inlineStr">
         <is>
-          <t>75,25; 80,15</t>
+          <t>75,49; 80,34</t>
         </is>
       </c>
       <c r="M11" s="2" t="inlineStr">
         <is>
-          <t>73,32; 78,28</t>
+          <t>73,03; 77,94</t>
         </is>
       </c>
       <c r="N11" s="2" t="inlineStr">
         <is>
-          <t>94,6; 96,67</t>
+          <t>94,6; 96,64</t>
         </is>
       </c>
     </row>
@@ -1284,62 +1284,62 @@
       </c>
       <c r="C13" s="2" t="inlineStr">
         <is>
-          <t>65,53; 75,09</t>
+          <t>65,69; 74,94</t>
         </is>
       </c>
       <c r="D13" s="2" t="inlineStr">
         <is>
-          <t>72,83; 81,09</t>
+          <t>72,13; 80,87</t>
         </is>
       </c>
       <c r="E13" s="2" t="inlineStr">
         <is>
-          <t>73,95; 81,84</t>
+          <t>73,81; 81,74</t>
         </is>
       </c>
       <c r="F13" s="2" t="inlineStr">
         <is>
-          <t>91,32; 95,14</t>
+          <t>90,96; 95,08</t>
         </is>
       </c>
       <c r="G13" s="2" t="inlineStr">
         <is>
-          <t>70,04; 78,45</t>
+          <t>69,97; 79,18</t>
         </is>
       </c>
       <c r="H13" s="2" t="inlineStr">
         <is>
-          <t>78,03; 85,94</t>
+          <t>78,24; 85,81</t>
         </is>
       </c>
       <c r="I13" s="2" t="inlineStr">
         <is>
-          <t>78,99; 86,11</t>
+          <t>78,78; 86,04</t>
         </is>
       </c>
       <c r="J13" s="2" t="inlineStr">
         <is>
-          <t>95,18; 97,54</t>
+          <t>95,21; 97,63</t>
         </is>
       </c>
       <c r="K13" s="2" t="inlineStr">
         <is>
-          <t>68,92; 75,77</t>
+          <t>69,38; 75,47</t>
         </is>
       </c>
       <c r="L13" s="2" t="inlineStr">
         <is>
-          <t>77,03; 82,61</t>
+          <t>77,15; 82,71</t>
         </is>
       </c>
       <c r="M13" s="2" t="inlineStr">
         <is>
-          <t>77,55; 82,93</t>
+          <t>77,65; 83,1</t>
         </is>
       </c>
       <c r="N13" s="2" t="inlineStr">
         <is>
-          <t>93,72; 95,97</t>
+          <t>93,67; 96,03</t>
         </is>
       </c>
     </row>
@@ -1424,62 +1424,62 @@
       </c>
       <c r="C15" s="2" t="inlineStr">
         <is>
-          <t>69,95; 77,6</t>
+          <t>69,96; 77,74</t>
         </is>
       </c>
       <c r="D15" s="2" t="inlineStr">
         <is>
-          <t>79,35; 86,48</t>
+          <t>79,55; 86,21</t>
         </is>
       </c>
       <c r="E15" s="2" t="inlineStr">
         <is>
-          <t>78,56; 84,79</t>
+          <t>78,72; 84,65</t>
         </is>
       </c>
       <c r="F15" s="2" t="inlineStr">
         <is>
-          <t>94,49; 97,03</t>
+          <t>94,51; 96,94</t>
         </is>
       </c>
       <c r="G15" s="2" t="inlineStr">
         <is>
-          <t>74,34; 80,72</t>
+          <t>74,4; 80,8</t>
         </is>
       </c>
       <c r="H15" s="2" t="inlineStr">
         <is>
-          <t>83,58; 88,53</t>
+          <t>83,56; 88,58</t>
         </is>
       </c>
       <c r="I15" s="2" t="inlineStr">
         <is>
-          <t>78,87; 84,71</t>
+          <t>78,69; 85,04</t>
         </is>
       </c>
       <c r="J15" s="2" t="inlineStr">
         <is>
-          <t>95,74; 97,85</t>
+          <t>95,67; 97,82</t>
         </is>
       </c>
       <c r="K15" s="2" t="inlineStr">
         <is>
-          <t>73,52; 78,46</t>
+          <t>73,56; 78,32</t>
         </is>
       </c>
       <c r="L15" s="2" t="inlineStr">
         <is>
-          <t>82,66; 86,93</t>
+          <t>82,72; 86,94</t>
         </is>
       </c>
       <c r="M15" s="2" t="inlineStr">
         <is>
-          <t>79,6; 83,91</t>
+          <t>79,68; 83,96</t>
         </is>
       </c>
       <c r="N15" s="2" t="inlineStr">
         <is>
-          <t>95,5; 97,2</t>
+          <t>95,52; 97,19</t>
         </is>
       </c>
     </row>
@@ -1564,62 +1564,62 @@
       </c>
       <c r="C17" s="2" t="inlineStr">
         <is>
-          <t>61,68; 64,9</t>
+          <t>61,51; 64,82</t>
         </is>
       </c>
       <c r="D17" s="2" t="inlineStr">
         <is>
-          <t>69,56; 72,74</t>
+          <t>69,49; 72,75</t>
         </is>
       </c>
       <c r="E17" s="2" t="inlineStr">
         <is>
-          <t>70,84; 73,99</t>
+          <t>70,66; 73,8</t>
         </is>
       </c>
       <c r="F17" s="2" t="inlineStr">
         <is>
-          <t>93,34; 95,23</t>
+          <t>93,27; 95,11</t>
         </is>
       </c>
       <c r="G17" s="2" t="inlineStr">
         <is>
-          <t>69,41; 72,57</t>
+          <t>69,61; 72,58</t>
         </is>
       </c>
       <c r="H17" s="2" t="inlineStr">
         <is>
-          <t>78,08; 80,86</t>
+          <t>78,18; 80,99</t>
         </is>
       </c>
       <c r="I17" s="2" t="inlineStr">
         <is>
-          <t>75,86; 78,75</t>
+          <t>75,95; 78,72</t>
         </is>
       </c>
       <c r="J17" s="2" t="inlineStr">
         <is>
-          <t>95,05; 96,44</t>
+          <t>95,1; 96,47</t>
         </is>
       </c>
       <c r="K17" s="2" t="inlineStr">
         <is>
-          <t>65,9; 68,27</t>
+          <t>66,06; 68,31</t>
         </is>
       </c>
       <c r="L17" s="2" t="inlineStr">
         <is>
-          <t>74,4; 76,46</t>
+          <t>74,41; 76,45</t>
         </is>
       </c>
       <c r="M17" s="2" t="inlineStr">
         <is>
-          <t>73,76; 75,88</t>
+          <t>73,78; 75,89</t>
         </is>
       </c>
       <c r="N17" s="2" t="inlineStr">
         <is>
-          <t>94,45; 95,62</t>
+          <t>94,51; 95,65</t>
         </is>
       </c>
     </row>

--- a/data/trans_dic/P36B08_R-Edad-trans_dic.xlsx
+++ b/data/trans_dic/P36B08_R-Edad-trans_dic.xlsx
@@ -578,7 +578,7 @@
       </c>
       <c r="E2" s="3" t="inlineStr">
         <is>
-          <t>2015</t>
+          <t>2016</t>
         </is>
       </c>
       <c r="F2" s="3" t="inlineStr">
@@ -598,7 +598,7 @@
       </c>
       <c r="I2" s="3" t="inlineStr">
         <is>
-          <t>2015</t>
+          <t>2016</t>
         </is>
       </c>
       <c r="J2" s="3" t="inlineStr">
@@ -618,7 +618,7 @@
       </c>
       <c r="M2" s="3" t="inlineStr">
         <is>
-          <t>2015</t>
+          <t>2016</t>
         </is>
       </c>
       <c r="N2" s="3" t="inlineStr">
@@ -724,17 +724,17 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>45,53; 54,39</t>
+          <t>45,64; 54,52</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>46,1; 55,99</t>
+          <t>46,45; 55,69</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>56,49; 66,82</t>
+          <t>56,53; 66,66</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
@@ -744,17 +744,17 @@
       </c>
       <c r="G5" s="2" t="inlineStr">
         <is>
-          <t>48,65; 57,58</t>
+          <t>48,64; 57,69</t>
         </is>
       </c>
       <c r="H5" s="2" t="inlineStr">
         <is>
-          <t>59,16; 68,04</t>
+          <t>59,3; 68,15</t>
         </is>
       </c>
       <c r="I5" s="2" t="inlineStr">
         <is>
-          <t>58,05; 67,5</t>
+          <t>58,37; 67,34</t>
         </is>
       </c>
       <c r="J5" s="2" t="inlineStr">
@@ -764,17 +764,17 @@
       </c>
       <c r="K5" s="2" t="inlineStr">
         <is>
-          <t>48,19; 54,46</t>
+          <t>48,16; 54,53</t>
         </is>
       </c>
       <c r="L5" s="2" t="inlineStr">
         <is>
-          <t>54,12; 60,38</t>
+          <t>54,05; 60,53</t>
         </is>
       </c>
       <c r="M5" s="2" t="inlineStr">
         <is>
-          <t>58,66; 65,67</t>
+          <t>58,81; 65,36</t>
         </is>
       </c>
       <c r="N5" s="2" t="inlineStr">
@@ -864,17 +864,17 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>58,44; 65,61</t>
+          <t>58,4; 65,32</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>63,18; 70,84</t>
+          <t>63,35; 70,63</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>64,66; 72,08</t>
+          <t>64,27; 72,19</t>
         </is>
       </c>
       <c r="F7" s="2" t="inlineStr">
@@ -884,17 +884,17 @@
       </c>
       <c r="G7" s="2" t="inlineStr">
         <is>
-          <t>65,34; 72,89</t>
+          <t>65,44; 72,68</t>
         </is>
       </c>
       <c r="H7" s="2" t="inlineStr">
         <is>
-          <t>71,8; 78,64</t>
+          <t>71,88; 79,0</t>
         </is>
       </c>
       <c r="I7" s="2" t="inlineStr">
         <is>
-          <t>68,6; 75,84</t>
+          <t>68,64; 76,01</t>
         </is>
       </c>
       <c r="J7" s="2" t="inlineStr">
@@ -904,17 +904,17 @@
       </c>
       <c r="K7" s="2" t="inlineStr">
         <is>
-          <t>62,57; 67,79</t>
+          <t>62,33; 67,66</t>
         </is>
       </c>
       <c r="L7" s="2" t="inlineStr">
         <is>
-          <t>68,53; 73,36</t>
+          <t>68,15; 73,47</t>
         </is>
       </c>
       <c r="M7" s="2" t="inlineStr">
         <is>
-          <t>67,7; 72,96</t>
+          <t>67,53; 72,95</t>
         </is>
       </c>
       <c r="N7" s="2" t="inlineStr">
@@ -1004,17 +1004,17 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>57,09; 65,16</t>
+          <t>57,5; 65,36</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>69,65; 76,66</t>
+          <t>70,26; 76,81</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>67,61; 74,62</t>
+          <t>67,29; 74,44</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
@@ -1024,17 +1024,17 @@
       </c>
       <c r="G9" s="2" t="inlineStr">
         <is>
-          <t>68,88; 75,81</t>
+          <t>68,71; 75,52</t>
         </is>
       </c>
       <c r="H9" s="2" t="inlineStr">
         <is>
-          <t>77,57; 83,76</t>
+          <t>77,41; 83,74</t>
         </is>
       </c>
       <c r="I9" s="2" t="inlineStr">
         <is>
-          <t>74,77; 81,21</t>
+          <t>74,6; 81,02</t>
         </is>
       </c>
       <c r="J9" s="2" t="inlineStr">
@@ -1044,17 +1044,17 @@
       </c>
       <c r="K9" s="2" t="inlineStr">
         <is>
-          <t>64,46; 69,69</t>
+          <t>64,47; 69,68</t>
         </is>
       </c>
       <c r="L9" s="2" t="inlineStr">
         <is>
-          <t>75,01; 79,7</t>
+          <t>74,9; 79,76</t>
         </is>
       </c>
       <c r="M9" s="2" t="inlineStr">
         <is>
-          <t>71,93; 76,87</t>
+          <t>72,06; 76,89</t>
         </is>
       </c>
       <c r="N9" s="2" t="inlineStr">
@@ -1144,17 +1144,17 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>60,38; 68,98</t>
+          <t>59,76; 68,83</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>68,6; 76,27</t>
+          <t>68,53; 76,12</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>67,13; 74,47</t>
+          <t>67,0; 74,92</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
@@ -1164,17 +1164,17 @@
       </c>
       <c r="G11" s="2" t="inlineStr">
         <is>
-          <t>73,22; 80,56</t>
+          <t>73,26; 80,84</t>
         </is>
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>79,68; 86,0</t>
+          <t>79,8; 86,27</t>
         </is>
       </c>
       <c r="I11" s="2" t="inlineStr">
         <is>
-          <t>76,97; 83,55</t>
+          <t>77,11; 83,23</t>
         </is>
       </c>
       <c r="J11" s="2" t="inlineStr">
@@ -1184,17 +1184,17 @@
       </c>
       <c r="K11" s="2" t="inlineStr">
         <is>
-          <t>68,2; 73,74</t>
+          <t>67,72; 73,59</t>
         </is>
       </c>
       <c r="L11" s="2" t="inlineStr">
         <is>
-          <t>75,49; 80,34</t>
+          <t>75,27; 80,25</t>
         </is>
       </c>
       <c r="M11" s="2" t="inlineStr">
         <is>
-          <t>73,03; 77,94</t>
+          <t>73,38; 78,28</t>
         </is>
       </c>
       <c r="N11" s="2" t="inlineStr">
@@ -1284,17 +1284,17 @@
       </c>
       <c r="C13" s="2" t="inlineStr">
         <is>
-          <t>65,69; 74,94</t>
+          <t>65,75; 74,88</t>
         </is>
       </c>
       <c r="D13" s="2" t="inlineStr">
         <is>
-          <t>72,13; 80,87</t>
+          <t>72,54; 81,33</t>
         </is>
       </c>
       <c r="E13" s="2" t="inlineStr">
         <is>
-          <t>73,81; 81,74</t>
+          <t>73,58; 81,49</t>
         </is>
       </c>
       <c r="F13" s="2" t="inlineStr">
@@ -1304,17 +1304,17 @@
       </c>
       <c r="G13" s="2" t="inlineStr">
         <is>
-          <t>69,97; 79,18</t>
+          <t>70,15; 78,69</t>
         </is>
       </c>
       <c r="H13" s="2" t="inlineStr">
         <is>
-          <t>78,24; 85,81</t>
+          <t>78,48; 85,79</t>
         </is>
       </c>
       <c r="I13" s="2" t="inlineStr">
         <is>
-          <t>78,78; 86,04</t>
+          <t>78,59; 86,39</t>
         </is>
       </c>
       <c r="J13" s="2" t="inlineStr">
@@ -1324,17 +1324,17 @@
       </c>
       <c r="K13" s="2" t="inlineStr">
         <is>
-          <t>69,38; 75,47</t>
+          <t>69,41; 75,51</t>
         </is>
       </c>
       <c r="L13" s="2" t="inlineStr">
         <is>
-          <t>77,15; 82,71</t>
+          <t>77,09; 82,5</t>
         </is>
       </c>
       <c r="M13" s="2" t="inlineStr">
         <is>
-          <t>77,65; 83,1</t>
+          <t>77,66; 83,08</t>
         </is>
       </c>
       <c r="N13" s="2" t="inlineStr">
@@ -1424,17 +1424,17 @@
       </c>
       <c r="C15" s="2" t="inlineStr">
         <is>
-          <t>69,96; 77,74</t>
+          <t>69,92; 77,48</t>
         </is>
       </c>
       <c r="D15" s="2" t="inlineStr">
         <is>
-          <t>79,55; 86,21</t>
+          <t>79,49; 86,45</t>
         </is>
       </c>
       <c r="E15" s="2" t="inlineStr">
         <is>
-          <t>78,72; 84,65</t>
+          <t>78,21; 84,53</t>
         </is>
       </c>
       <c r="F15" s="2" t="inlineStr">
@@ -1444,17 +1444,17 @@
       </c>
       <c r="G15" s="2" t="inlineStr">
         <is>
-          <t>74,4; 80,8</t>
+          <t>74,42; 80,73</t>
         </is>
       </c>
       <c r="H15" s="2" t="inlineStr">
         <is>
-          <t>83,56; 88,58</t>
+          <t>83,59; 88,94</t>
         </is>
       </c>
       <c r="I15" s="2" t="inlineStr">
         <is>
-          <t>78,69; 85,04</t>
+          <t>78,44; 84,46</t>
         </is>
       </c>
       <c r="J15" s="2" t="inlineStr">
@@ -1464,17 +1464,17 @@
       </c>
       <c r="K15" s="2" t="inlineStr">
         <is>
-          <t>73,56; 78,32</t>
+          <t>73,5; 78,53</t>
         </is>
       </c>
       <c r="L15" s="2" t="inlineStr">
         <is>
-          <t>82,72; 86,94</t>
+          <t>82,78; 86,86</t>
         </is>
       </c>
       <c r="M15" s="2" t="inlineStr">
         <is>
-          <t>79,68; 83,96</t>
+          <t>79,62; 83,95</t>
         </is>
       </c>
       <c r="N15" s="2" t="inlineStr">
@@ -1564,17 +1564,17 @@
       </c>
       <c r="C17" s="2" t="inlineStr">
         <is>
-          <t>61,51; 64,82</t>
+          <t>61,57; 64,86</t>
         </is>
       </c>
       <c r="D17" s="2" t="inlineStr">
         <is>
-          <t>69,49; 72,75</t>
+          <t>69,48; 72,83</t>
         </is>
       </c>
       <c r="E17" s="2" t="inlineStr">
         <is>
-          <t>70,66; 73,8</t>
+          <t>70,71; 73,97</t>
         </is>
       </c>
       <c r="F17" s="2" t="inlineStr">
@@ -1584,17 +1584,17 @@
       </c>
       <c r="G17" s="2" t="inlineStr">
         <is>
-          <t>69,61; 72,58</t>
+          <t>69,46; 72,57</t>
         </is>
       </c>
       <c r="H17" s="2" t="inlineStr">
         <is>
-          <t>78,18; 80,99</t>
+          <t>78,03; 80,92</t>
         </is>
       </c>
       <c r="I17" s="2" t="inlineStr">
         <is>
-          <t>75,95; 78,72</t>
+          <t>75,9; 78,92</t>
         </is>
       </c>
       <c r="J17" s="2" t="inlineStr">
@@ -1604,17 +1604,17 @@
       </c>
       <c r="K17" s="2" t="inlineStr">
         <is>
-          <t>66,06; 68,31</t>
+          <t>66,1; 68,36</t>
         </is>
       </c>
       <c r="L17" s="2" t="inlineStr">
         <is>
-          <t>74,41; 76,45</t>
+          <t>74,23; 76,46</t>
         </is>
       </c>
       <c r="M17" s="2" t="inlineStr">
         <is>
-          <t>73,78; 75,89</t>
+          <t>73,91; 75,89</t>
         </is>
       </c>
       <c r="N17" s="2" t="inlineStr">

--- a/data/trans_dic/P36B08_R-Edad-trans_dic.xlsx
+++ b/data/trans_dic/P36B08_R-Edad-trans_dic.xlsx
@@ -7,7 +7,7 @@
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Transversal dicotómica" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Variables dicotomizadas" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -724,62 +724,62 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>45,64; 54,52</t>
+          <t>45,87; 54,58</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>46,45; 55,69</t>
+          <t>46,85; 56,04</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>56,53; 66,66</t>
+          <t>56,09; 66,05</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>85,27; 95,09</t>
+          <t>85,11; 95,22</t>
         </is>
       </c>
       <c r="G5" s="2" t="inlineStr">
         <is>
-          <t>48,64; 57,69</t>
+          <t>48,31; 57,09</t>
         </is>
       </c>
       <c r="H5" s="2" t="inlineStr">
         <is>
-          <t>59,3; 68,15</t>
+          <t>58,69; 68,18</t>
         </is>
       </c>
       <c r="I5" s="2" t="inlineStr">
         <is>
-          <t>58,37; 67,34</t>
+          <t>57,91; 67,88</t>
         </is>
       </c>
       <c r="J5" s="2" t="inlineStr">
         <is>
-          <t>87,12; 95,03</t>
+          <t>86,31; 94,93</t>
         </is>
       </c>
       <c r="K5" s="2" t="inlineStr">
         <is>
-          <t>48,16; 54,53</t>
+          <t>48,4; 54,46</t>
         </is>
       </c>
       <c r="L5" s="2" t="inlineStr">
         <is>
-          <t>54,05; 60,53</t>
+          <t>54,11; 60,67</t>
         </is>
       </c>
       <c r="M5" s="2" t="inlineStr">
         <is>
-          <t>58,81; 65,36</t>
+          <t>58,86; 65,63</t>
         </is>
       </c>
       <c r="N5" s="2" t="inlineStr">
         <is>
-          <t>87,81; 94,15</t>
+          <t>87,55; 94,15</t>
         </is>
       </c>
     </row>
@@ -864,62 +864,62 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>58,4; 65,32</t>
+          <t>58,21; 65,53</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>63,35; 70,63</t>
+          <t>63,4; 70,65</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>64,27; 72,19</t>
+          <t>65,07; 72,45</t>
         </is>
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>91,54; 97,19</t>
+          <t>91,54; 97,1</t>
         </is>
       </c>
       <c r="G7" s="2" t="inlineStr">
         <is>
-          <t>65,44; 72,68</t>
+          <t>65,18; 72,41</t>
         </is>
       </c>
       <c r="H7" s="2" t="inlineStr">
         <is>
-          <t>71,88; 79,0</t>
+          <t>71,83; 79,18</t>
         </is>
       </c>
       <c r="I7" s="2" t="inlineStr">
         <is>
-          <t>68,64; 76,01</t>
+          <t>68,4; 75,82</t>
         </is>
       </c>
       <c r="J7" s="2" t="inlineStr">
         <is>
-          <t>92,5; 97,03</t>
+          <t>92,79; 96,98</t>
         </is>
       </c>
       <c r="K7" s="2" t="inlineStr">
         <is>
-          <t>62,33; 67,66</t>
+          <t>62,51; 67,76</t>
         </is>
       </c>
       <c r="L7" s="2" t="inlineStr">
         <is>
-          <t>68,15; 73,47</t>
+          <t>68,19; 73,47</t>
         </is>
       </c>
       <c r="M7" s="2" t="inlineStr">
         <is>
-          <t>67,53; 72,95</t>
+          <t>67,67; 72,88</t>
         </is>
       </c>
       <c r="N7" s="2" t="inlineStr">
         <is>
-          <t>92,88; 96,54</t>
+          <t>93,26; 96,61</t>
         </is>
       </c>
     </row>
@@ -1004,62 +1004,62 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>57,5; 65,36</t>
+          <t>57,55; 65,11</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>70,26; 76,81</t>
+          <t>69,76; 76,67</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>67,29; 74,44</t>
+          <t>67,39; 74,75</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>91,46; 95,9</t>
+          <t>91,42; 95,75</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
         <is>
-          <t>68,71; 75,52</t>
+          <t>68,74; 75,76</t>
         </is>
       </c>
       <c r="H9" s="2" t="inlineStr">
         <is>
-          <t>77,41; 83,74</t>
+          <t>77,84; 83,87</t>
         </is>
       </c>
       <c r="I9" s="2" t="inlineStr">
         <is>
-          <t>74,6; 81,02</t>
+          <t>74,57; 81,3</t>
         </is>
       </c>
       <c r="J9" s="2" t="inlineStr">
         <is>
-          <t>94,15; 97,21</t>
+          <t>94,17; 97,18</t>
         </is>
       </c>
       <c r="K9" s="2" t="inlineStr">
         <is>
-          <t>64,47; 69,68</t>
+          <t>64,23; 69,59</t>
         </is>
       </c>
       <c r="L9" s="2" t="inlineStr">
         <is>
-          <t>74,9; 79,76</t>
+          <t>74,84; 79,47</t>
         </is>
       </c>
       <c r="M9" s="2" t="inlineStr">
         <is>
-          <t>72,06; 76,89</t>
+          <t>72,01; 76,75</t>
         </is>
       </c>
       <c r="N9" s="2" t="inlineStr">
         <is>
-          <t>93,36; 96,08</t>
+          <t>93,5; 96,21</t>
         </is>
       </c>
     </row>
@@ -1144,62 +1144,62 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>59,76; 68,83</t>
+          <t>59,75; 68,49</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>68,53; 76,12</t>
+          <t>68,91; 76,4</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>67,0; 74,92</t>
+          <t>67,37; 74,94</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>93,0; 96,67</t>
+          <t>93,04; 96,67</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
         <is>
-          <t>73,26; 80,84</t>
+          <t>73,37; 80,76</t>
         </is>
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>79,8; 86,27</t>
+          <t>79,34; 85,92</t>
         </is>
       </c>
       <c r="I11" s="2" t="inlineStr">
         <is>
-          <t>77,11; 83,23</t>
+          <t>77,18; 83,55</t>
         </is>
       </c>
       <c r="J11" s="2" t="inlineStr">
         <is>
-          <t>94,98; 97,24</t>
+          <t>95,03; 97,25</t>
         </is>
       </c>
       <c r="K11" s="2" t="inlineStr">
         <is>
-          <t>67,72; 73,59</t>
+          <t>67,84; 73,43</t>
         </is>
       </c>
       <c r="L11" s="2" t="inlineStr">
         <is>
-          <t>75,27; 80,25</t>
+          <t>75,25; 80,15</t>
         </is>
       </c>
       <c r="M11" s="2" t="inlineStr">
         <is>
-          <t>73,38; 78,28</t>
+          <t>73,32; 78,28</t>
         </is>
       </c>
       <c r="N11" s="2" t="inlineStr">
         <is>
-          <t>94,6; 96,64</t>
+          <t>94,6; 96,67</t>
         </is>
       </c>
     </row>
@@ -1284,62 +1284,62 @@
       </c>
       <c r="C13" s="2" t="inlineStr">
         <is>
-          <t>65,75; 74,88</t>
+          <t>65,53; 75,09</t>
         </is>
       </c>
       <c r="D13" s="2" t="inlineStr">
         <is>
-          <t>72,54; 81,33</t>
+          <t>72,83; 81,09</t>
         </is>
       </c>
       <c r="E13" s="2" t="inlineStr">
         <is>
-          <t>73,58; 81,49</t>
+          <t>73,95; 81,84</t>
         </is>
       </c>
       <c r="F13" s="2" t="inlineStr">
         <is>
-          <t>90,96; 95,08</t>
+          <t>91,32; 95,14</t>
         </is>
       </c>
       <c r="G13" s="2" t="inlineStr">
         <is>
-          <t>70,15; 78,69</t>
+          <t>70,04; 78,45</t>
         </is>
       </c>
       <c r="H13" s="2" t="inlineStr">
         <is>
-          <t>78,48; 85,79</t>
+          <t>78,03; 85,94</t>
         </is>
       </c>
       <c r="I13" s="2" t="inlineStr">
         <is>
-          <t>78,59; 86,39</t>
+          <t>78,99; 86,11</t>
         </is>
       </c>
       <c r="J13" s="2" t="inlineStr">
         <is>
-          <t>95,21; 97,63</t>
+          <t>95,18; 97,54</t>
         </is>
       </c>
       <c r="K13" s="2" t="inlineStr">
         <is>
-          <t>69,41; 75,51</t>
+          <t>68,92; 75,77</t>
         </is>
       </c>
       <c r="L13" s="2" t="inlineStr">
         <is>
-          <t>77,09; 82,5</t>
+          <t>77,03; 82,61</t>
         </is>
       </c>
       <c r="M13" s="2" t="inlineStr">
         <is>
-          <t>77,66; 83,08</t>
+          <t>77,55; 82,93</t>
         </is>
       </c>
       <c r="N13" s="2" t="inlineStr">
         <is>
-          <t>93,67; 96,03</t>
+          <t>93,72; 95,97</t>
         </is>
       </c>
     </row>
@@ -1424,62 +1424,62 @@
       </c>
       <c r="C15" s="2" t="inlineStr">
         <is>
-          <t>69,92; 77,48</t>
+          <t>69,95; 77,6</t>
         </is>
       </c>
       <c r="D15" s="2" t="inlineStr">
         <is>
-          <t>79,49; 86,45</t>
+          <t>79,35; 86,48</t>
         </is>
       </c>
       <c r="E15" s="2" t="inlineStr">
         <is>
-          <t>78,21; 84,53</t>
+          <t>78,56; 84,79</t>
         </is>
       </c>
       <c r="F15" s="2" t="inlineStr">
         <is>
-          <t>94,51; 96,94</t>
+          <t>94,49; 97,03</t>
         </is>
       </c>
       <c r="G15" s="2" t="inlineStr">
         <is>
-          <t>74,42; 80,73</t>
+          <t>74,34; 80,72</t>
         </is>
       </c>
       <c r="H15" s="2" t="inlineStr">
         <is>
-          <t>83,59; 88,94</t>
+          <t>83,58; 88,53</t>
         </is>
       </c>
       <c r="I15" s="2" t="inlineStr">
         <is>
-          <t>78,44; 84,46</t>
+          <t>78,87; 84,71</t>
         </is>
       </c>
       <c r="J15" s="2" t="inlineStr">
         <is>
-          <t>95,67; 97,82</t>
+          <t>95,74; 97,85</t>
         </is>
       </c>
       <c r="K15" s="2" t="inlineStr">
         <is>
-          <t>73,5; 78,53</t>
+          <t>73,52; 78,46</t>
         </is>
       </c>
       <c r="L15" s="2" t="inlineStr">
         <is>
-          <t>82,78; 86,86</t>
+          <t>82,66; 86,93</t>
         </is>
       </c>
       <c r="M15" s="2" t="inlineStr">
         <is>
-          <t>79,62; 83,95</t>
+          <t>79,6; 83,91</t>
         </is>
       </c>
       <c r="N15" s="2" t="inlineStr">
         <is>
-          <t>95,52; 97,19</t>
+          <t>95,5; 97,2</t>
         </is>
       </c>
     </row>
@@ -1564,62 +1564,62 @@
       </c>
       <c r="C17" s="2" t="inlineStr">
         <is>
-          <t>61,57; 64,86</t>
+          <t>61,68; 64,9</t>
         </is>
       </c>
       <c r="D17" s="2" t="inlineStr">
         <is>
-          <t>69,48; 72,83</t>
+          <t>69,56; 72,74</t>
         </is>
       </c>
       <c r="E17" s="2" t="inlineStr">
         <is>
-          <t>70,71; 73,97</t>
+          <t>70,84; 73,99</t>
         </is>
       </c>
       <c r="F17" s="2" t="inlineStr">
         <is>
-          <t>93,27; 95,11</t>
+          <t>93,34; 95,23</t>
         </is>
       </c>
       <c r="G17" s="2" t="inlineStr">
         <is>
-          <t>69,46; 72,57</t>
+          <t>69,41; 72,57</t>
         </is>
       </c>
       <c r="H17" s="2" t="inlineStr">
         <is>
-          <t>78,03; 80,92</t>
+          <t>78,08; 80,86</t>
         </is>
       </c>
       <c r="I17" s="2" t="inlineStr">
         <is>
-          <t>75,9; 78,92</t>
+          <t>75,86; 78,75</t>
         </is>
       </c>
       <c r="J17" s="2" t="inlineStr">
         <is>
-          <t>95,1; 96,47</t>
+          <t>95,05; 96,44</t>
         </is>
       </c>
       <c r="K17" s="2" t="inlineStr">
         <is>
-          <t>66,1; 68,36</t>
+          <t>65,9; 68,27</t>
         </is>
       </c>
       <c r="L17" s="2" t="inlineStr">
         <is>
-          <t>74,23; 76,46</t>
+          <t>74,4; 76,46</t>
         </is>
       </c>
       <c r="M17" s="2" t="inlineStr">
         <is>
-          <t>73,91; 75,89</t>
+          <t>73,76; 75,88</t>
         </is>
       </c>
       <c r="N17" s="2" t="inlineStr">
         <is>
-          <t>94,51; 95,65</t>
+          <t>94,45; 95,62</t>
         </is>
       </c>
     </row>

--- a/data/trans_dic/P36B08_R-Edad-trans_dic.xlsx
+++ b/data/trans_dic/P36B08_R-Edad-trans_dic.xlsx
@@ -504,7 +504,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:N18"/>
+  <dimension ref="A1:N20"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
@@ -646,7 +646,7 @@
     <row r="4">
       <c r="A4" s="1" t="inlineStr">
         <is>
-          <t>16/24</t>
+          <t>16-24</t>
         </is>
       </c>
       <c r="B4" s="3" t="inlineStr">
@@ -671,7 +671,7 @@
       </c>
       <c r="F4" s="2" t="inlineStr">
         <is>
-          <t>91,03%</t>
+          <t>90,68%</t>
         </is>
       </c>
       <c r="G4" s="2" t="inlineStr">
@@ -691,7 +691,7 @@
       </c>
       <c r="J4" s="2" t="inlineStr">
         <is>
-          <t>91,68%</t>
+          <t>90,83%</t>
         </is>
       </c>
       <c r="K4" s="2" t="inlineStr">
@@ -711,7 +711,7 @@
       </c>
       <c r="N4" s="2" t="inlineStr">
         <is>
-          <t>91,34%</t>
+          <t>90,75%</t>
         </is>
       </c>
     </row>
@@ -739,7 +739,7 @@
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>85,11; 95,22</t>
+          <t>84,47; 95,0</t>
         </is>
       </c>
       <c r="G5" s="2" t="inlineStr">
@@ -759,7 +759,7 @@
       </c>
       <c r="J5" s="2" t="inlineStr">
         <is>
-          <t>86,31; 94,93</t>
+          <t>84,41; 94,62</t>
         </is>
       </c>
       <c r="K5" s="2" t="inlineStr">
@@ -779,14 +779,14 @@
       </c>
       <c r="N5" s="2" t="inlineStr">
         <is>
-          <t>87,55; 94,15</t>
+          <t>86,16; 93,7</t>
         </is>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="1" t="inlineStr">
         <is>
-          <t>25/34</t>
+          <t>25-34</t>
         </is>
       </c>
       <c r="B6" s="3" t="inlineStr">
@@ -811,7 +811,7 @@
       </c>
       <c r="F6" s="2" t="inlineStr">
         <is>
-          <t>94,83%</t>
+          <t>94,87%</t>
         </is>
       </c>
       <c r="G6" s="2" t="inlineStr">
@@ -831,7 +831,7 @@
       </c>
       <c r="J6" s="2" t="inlineStr">
         <is>
-          <t>95,23%</t>
+          <t>95,73%</t>
         </is>
       </c>
       <c r="K6" s="2" t="inlineStr">
@@ -851,7 +851,7 @@
       </c>
       <c r="N6" s="2" t="inlineStr">
         <is>
-          <t>95,04%</t>
+          <t>95,34%</t>
         </is>
       </c>
     </row>
@@ -879,7 +879,7 @@
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>91,54; 97,1</t>
+          <t>91,5; 97,1</t>
         </is>
       </c>
       <c r="G7" s="2" t="inlineStr">
@@ -899,7 +899,7 @@
       </c>
       <c r="J7" s="2" t="inlineStr">
         <is>
-          <t>92,79; 96,98</t>
+          <t>93,51; 97,57</t>
         </is>
       </c>
       <c r="K7" s="2" t="inlineStr">
@@ -919,14 +919,14 @@
       </c>
       <c r="N7" s="2" t="inlineStr">
         <is>
-          <t>93,26; 96,61</t>
+          <t>93,51; 96,92</t>
         </is>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="1" t="inlineStr">
         <is>
-          <t>35/44</t>
+          <t>35-44</t>
         </is>
       </c>
       <c r="B8" s="3" t="inlineStr">
@@ -951,7 +951,7 @@
       </c>
       <c r="F8" s="2" t="inlineStr">
         <is>
-          <t>94,03%</t>
+          <t>93,85%</t>
         </is>
       </c>
       <c r="G8" s="2" t="inlineStr">
@@ -971,7 +971,7 @@
       </c>
       <c r="J8" s="2" t="inlineStr">
         <is>
-          <t>95,85%</t>
+          <t>95,8%</t>
         </is>
       </c>
       <c r="K8" s="2" t="inlineStr">
@@ -991,7 +991,7 @@
       </c>
       <c r="N8" s="2" t="inlineStr">
         <is>
-          <t>94,96%</t>
+          <t>94,83%</t>
         </is>
       </c>
     </row>
@@ -1019,7 +1019,7 @@
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>91,42; 95,75</t>
+          <t>91,21; 95,63</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
@@ -1039,7 +1039,7 @@
       </c>
       <c r="J9" s="2" t="inlineStr">
         <is>
-          <t>94,17; 97,18</t>
+          <t>94,11; 97,13</t>
         </is>
       </c>
       <c r="K9" s="2" t="inlineStr">
@@ -1059,14 +1059,14 @@
       </c>
       <c r="N9" s="2" t="inlineStr">
         <is>
-          <t>93,5; 96,21</t>
+          <t>93,31; 96,1</t>
         </is>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="1" t="inlineStr">
         <is>
-          <t>45/54</t>
+          <t>45-54</t>
         </is>
       </c>
       <c r="B10" s="3" t="inlineStr">
@@ -1091,7 +1091,7 @@
       </c>
       <c r="F10" s="2" t="inlineStr">
         <is>
-          <t>95,11%</t>
+          <t>96,06%</t>
         </is>
       </c>
       <c r="G10" s="2" t="inlineStr">
@@ -1111,7 +1111,7 @@
       </c>
       <c r="J10" s="2" t="inlineStr">
         <is>
-          <t>96,27%</t>
+          <t>96,38%</t>
         </is>
       </c>
       <c r="K10" s="2" t="inlineStr">
@@ -1131,7 +1131,7 @@
       </c>
       <c r="N10" s="2" t="inlineStr">
         <is>
-          <t>95,7%</t>
+          <t>96,2%</t>
         </is>
       </c>
     </row>
@@ -1159,7 +1159,7 @@
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>93,04; 96,67</t>
+          <t>93,71; 98,29</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
@@ -1179,7 +1179,7 @@
       </c>
       <c r="J11" s="2" t="inlineStr">
         <is>
-          <t>95,03; 97,25</t>
+          <t>95,17; 97,41</t>
         </is>
       </c>
       <c r="K11" s="2" t="inlineStr">
@@ -1199,14 +1199,14 @@
       </c>
       <c r="N11" s="2" t="inlineStr">
         <is>
-          <t>94,6; 96,67</t>
+          <t>95,01; 97,83</t>
         </is>
       </c>
     </row>
     <row r="12">
       <c r="A12" s="1" t="inlineStr">
         <is>
-          <t>55/64</t>
+          <t>55-64</t>
         </is>
       </c>
       <c r="B12" s="3" t="inlineStr">
@@ -1231,7 +1231,7 @@
       </c>
       <c r="F12" s="2" t="inlineStr">
         <is>
-          <t>93,39%</t>
+          <t>93,27%</t>
         </is>
       </c>
       <c r="G12" s="2" t="inlineStr">
@@ -1251,7 +1251,7 @@
       </c>
       <c r="J12" s="2" t="inlineStr">
         <is>
-          <t>96,49%</t>
+          <t>96,43%</t>
         </is>
       </c>
       <c r="K12" s="2" t="inlineStr">
@@ -1271,7 +1271,7 @@
       </c>
       <c r="N12" s="2" t="inlineStr">
         <is>
-          <t>94,94%</t>
+          <t>94,83%</t>
         </is>
       </c>
     </row>
@@ -1299,7 +1299,7 @@
       </c>
       <c r="F13" s="2" t="inlineStr">
         <is>
-          <t>91,32; 95,14</t>
+          <t>91,14; 95,03</t>
         </is>
       </c>
       <c r="G13" s="2" t="inlineStr">
@@ -1319,7 +1319,7 @@
       </c>
       <c r="J13" s="2" t="inlineStr">
         <is>
-          <t>95,18; 97,54</t>
+          <t>95,12; 97,5</t>
         </is>
       </c>
       <c r="K13" s="2" t="inlineStr">
@@ -1339,14 +1339,14 @@
       </c>
       <c r="N13" s="2" t="inlineStr">
         <is>
-          <t>93,72; 95,97</t>
+          <t>93,57; 95,88</t>
         </is>
       </c>
     </row>
     <row r="14">
       <c r="A14" s="1" t="inlineStr">
         <is>
-          <t>65 y más</t>
+          <t>65-74</t>
         </is>
       </c>
       <c r="B14" s="3" t="inlineStr">
@@ -1356,62 +1356,62 @@
       </c>
       <c r="C14" s="2" t="inlineStr">
         <is>
-          <t>73,73%</t>
+          <t>72,63%</t>
         </is>
       </c>
       <c r="D14" s="2" t="inlineStr">
         <is>
-          <t>83,18%</t>
+          <t>82,04%</t>
         </is>
       </c>
       <c r="E14" s="2" t="inlineStr">
         <is>
-          <t>81,81%</t>
+          <t>80,73%</t>
         </is>
       </c>
       <c r="F14" s="2" t="inlineStr">
         <is>
-          <t>95,83%</t>
+          <t>95,25%</t>
         </is>
       </c>
       <c r="G14" s="2" t="inlineStr">
         <is>
-          <t>77,74%</t>
+          <t>78,12%</t>
         </is>
       </c>
       <c r="H14" s="2" t="inlineStr">
         <is>
-          <t>86,26%</t>
+          <t>87,46%</t>
         </is>
       </c>
       <c r="I14" s="2" t="inlineStr">
         <is>
-          <t>81,89%</t>
+          <t>84,56%</t>
         </is>
       </c>
       <c r="J14" s="2" t="inlineStr">
         <is>
-          <t>96,7%</t>
+          <t>97,8%</t>
         </is>
       </c>
       <c r="K14" s="2" t="inlineStr">
         <is>
-          <t>76,03%</t>
+          <t>75,59%</t>
         </is>
       </c>
       <c r="L14" s="2" t="inlineStr">
         <is>
-          <t>84,94%</t>
+          <t>84,95%</t>
         </is>
       </c>
       <c r="M14" s="2" t="inlineStr">
         <is>
-          <t>81,85%</t>
+          <t>82,76%</t>
         </is>
       </c>
       <c r="N14" s="2" t="inlineStr">
         <is>
-          <t>96,35%</t>
+          <t>96,84%</t>
         </is>
       </c>
     </row>
@@ -1424,69 +1424,69 @@
       </c>
       <c r="C15" s="2" t="inlineStr">
         <is>
-          <t>69,95; 77,6</t>
+          <t>67,18; 77,31</t>
         </is>
       </c>
       <c r="D15" s="2" t="inlineStr">
         <is>
-          <t>79,35; 86,48</t>
+          <t>77,13; 85,9</t>
         </is>
       </c>
       <c r="E15" s="2" t="inlineStr">
         <is>
-          <t>78,56; 84,79</t>
+          <t>76,22; 84,86</t>
         </is>
       </c>
       <c r="F15" s="2" t="inlineStr">
         <is>
-          <t>94,49; 97,03</t>
+          <t>93,39; 96,92</t>
         </is>
       </c>
       <c r="G15" s="2" t="inlineStr">
         <is>
-          <t>74,34; 80,72</t>
+          <t>73,55; 81,87</t>
         </is>
       </c>
       <c r="H15" s="2" t="inlineStr">
         <is>
-          <t>83,58; 88,53</t>
+          <t>83,49; 90,51</t>
         </is>
       </c>
       <c r="I15" s="2" t="inlineStr">
         <is>
-          <t>78,87; 84,71</t>
+          <t>80,63; 88,15</t>
         </is>
       </c>
       <c r="J15" s="2" t="inlineStr">
         <is>
-          <t>95,74; 97,85</t>
+          <t>96,26; 99,2</t>
         </is>
       </c>
       <c r="K15" s="2" t="inlineStr">
         <is>
-          <t>73,52; 78,46</t>
+          <t>72,16; 78,66</t>
         </is>
       </c>
       <c r="L15" s="2" t="inlineStr">
         <is>
-          <t>82,66; 86,93</t>
+          <t>81,89; 87,69</t>
         </is>
       </c>
       <c r="M15" s="2" t="inlineStr">
         <is>
-          <t>79,6; 83,91</t>
+          <t>79,95; 85,66</t>
         </is>
       </c>
       <c r="N15" s="2" t="inlineStr">
         <is>
-          <t>95,5; 97,2</t>
+          <t>95,6; 98,53</t>
         </is>
       </c>
     </row>
     <row r="16">
       <c r="A16" s="1" t="inlineStr">
         <is>
-          <t>Total</t>
+          <t>75 o más</t>
         </is>
       </c>
       <c r="B16" s="3" t="inlineStr">
@@ -1496,62 +1496,62 @@
       </c>
       <c r="C16" s="2" t="inlineStr">
         <is>
-          <t>63,23%</t>
+          <t>75,26%</t>
         </is>
       </c>
       <c r="D16" s="2" t="inlineStr">
         <is>
-          <t>71,16%</t>
+          <t>84,59%</t>
         </is>
       </c>
       <c r="E16" s="2" t="inlineStr">
         <is>
-          <t>72,3%</t>
+          <t>83,21%</t>
         </is>
       </c>
       <c r="F16" s="2" t="inlineStr">
         <is>
-          <t>94,28%</t>
+          <t>96,31%</t>
         </is>
       </c>
       <c r="G16" s="2" t="inlineStr">
         <is>
-          <t>71,09%</t>
+          <t>77,35%</t>
         </is>
       </c>
       <c r="H16" s="2" t="inlineStr">
         <is>
-          <t>79,56%</t>
+          <t>85,17%</t>
         </is>
       </c>
       <c r="I16" s="2" t="inlineStr">
         <is>
-          <t>77,41%</t>
+          <t>79,37%</t>
         </is>
       </c>
       <c r="J16" s="2" t="inlineStr">
         <is>
-          <t>95,79%</t>
+          <t>95,84%</t>
         </is>
       </c>
       <c r="K16" s="2" t="inlineStr">
         <is>
-          <t>67,22%</t>
+          <t>76,54%</t>
         </is>
       </c>
       <c r="L16" s="2" t="inlineStr">
         <is>
-          <t>75,43%</t>
+          <t>84,94%</t>
         </is>
       </c>
       <c r="M16" s="2" t="inlineStr">
         <is>
-          <t>74,91%</t>
+          <t>80,88%</t>
         </is>
       </c>
       <c r="N16" s="2" t="inlineStr">
         <is>
-          <t>95,08%</t>
+          <t>96,03%</t>
         </is>
       </c>
     </row>
@@ -1564,74 +1564,214 @@
       </c>
       <c r="C17" s="2" t="inlineStr">
         <is>
+          <t>69,19; 80,18</t>
+        </is>
+      </c>
+      <c r="D17" s="2" t="inlineStr">
+        <is>
+          <t>79,48; 89,6</t>
+        </is>
+      </c>
+      <c r="E17" s="2" t="inlineStr">
+        <is>
+          <t>78,49; 87,14</t>
+        </is>
+      </c>
+      <c r="F17" s="2" t="inlineStr">
+        <is>
+          <t>94,07; 97,87</t>
+        </is>
+      </c>
+      <c r="G17" s="2" t="inlineStr">
+        <is>
+          <t>71,97; 82,26</t>
+        </is>
+      </c>
+      <c r="H17" s="2" t="inlineStr">
+        <is>
+          <t>81,2; 88,68</t>
+        </is>
+      </c>
+      <c r="I17" s="2" t="inlineStr">
+        <is>
+          <t>74,85; 83,86</t>
+        </is>
+      </c>
+      <c r="J17" s="2" t="inlineStr">
+        <is>
+          <t>94,17; 97,11</t>
+        </is>
+      </c>
+      <c r="K17" s="2" t="inlineStr">
+        <is>
+          <t>72,86; 80,4</t>
+        </is>
+      </c>
+      <c r="L17" s="2" t="inlineStr">
+        <is>
+          <t>81,67; 87,61</t>
+        </is>
+      </c>
+      <c r="M17" s="2" t="inlineStr">
+        <is>
+          <t>77,27; 83,85</t>
+        </is>
+      </c>
+      <c r="N17" s="2" t="inlineStr">
+        <is>
+          <t>94,84; 97,03</t>
+        </is>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="1" t="inlineStr">
+        <is>
+          <t>Total</t>
+        </is>
+      </c>
+      <c r="B18" s="3" t="inlineStr">
+        <is>
+          <t>Estimación</t>
+        </is>
+      </c>
+      <c r="C18" s="2" t="inlineStr">
+        <is>
+          <t>63,23%</t>
+        </is>
+      </c>
+      <c r="D18" s="2" t="inlineStr">
+        <is>
+          <t>71,16%</t>
+        </is>
+      </c>
+      <c r="E18" s="2" t="inlineStr">
+        <is>
+          <t>72,3%</t>
+        </is>
+      </c>
+      <c r="F18" s="2" t="inlineStr">
+        <is>
+          <t>94,43%</t>
+        </is>
+      </c>
+      <c r="G18" s="2" t="inlineStr">
+        <is>
+          <t>71,09%</t>
+        </is>
+      </c>
+      <c r="H18" s="2" t="inlineStr">
+        <is>
+          <t>79,56%</t>
+        </is>
+      </c>
+      <c r="I18" s="2" t="inlineStr">
+        <is>
+          <t>77,41%</t>
+        </is>
+      </c>
+      <c r="J18" s="2" t="inlineStr">
+        <is>
+          <t>95,91%</t>
+        </is>
+      </c>
+      <c r="K18" s="2" t="inlineStr">
+        <is>
+          <t>67,22%</t>
+        </is>
+      </c>
+      <c r="L18" s="2" t="inlineStr">
+        <is>
+          <t>75,43%</t>
+        </is>
+      </c>
+      <c r="M18" s="2" t="inlineStr">
+        <is>
+          <t>74,91%</t>
+        </is>
+      </c>
+      <c r="N18" s="2" t="inlineStr">
+        <is>
+          <t>95,19%</t>
+        </is>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" s="1" t="n"/>
+      <c r="B19" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C19" s="2" t="inlineStr">
+        <is>
           <t>61,68; 64,9</t>
         </is>
       </c>
-      <c r="D17" s="2" t="inlineStr">
+      <c r="D19" s="2" t="inlineStr">
         <is>
           <t>69,56; 72,74</t>
         </is>
       </c>
-      <c r="E17" s="2" t="inlineStr">
+      <c r="E19" s="2" t="inlineStr">
         <is>
           <t>70,84; 73,99</t>
         </is>
       </c>
-      <c r="F17" s="2" t="inlineStr">
-        <is>
-          <t>93,34; 95,23</t>
-        </is>
-      </c>
-      <c r="G17" s="2" t="inlineStr">
+      <c r="F19" s="2" t="inlineStr">
+        <is>
+          <t>93,36; 95,67</t>
+        </is>
+      </c>
+      <c r="G19" s="2" t="inlineStr">
         <is>
           <t>69,41; 72,57</t>
         </is>
       </c>
-      <c r="H17" s="2" t="inlineStr">
+      <c r="H19" s="2" t="inlineStr">
         <is>
           <t>78,08; 80,86</t>
         </is>
       </c>
-      <c r="I17" s="2" t="inlineStr">
+      <c r="I19" s="2" t="inlineStr">
         <is>
           <t>75,86; 78,75</t>
         </is>
       </c>
-      <c r="J17" s="2" t="inlineStr">
-        <is>
-          <t>95,05; 96,44</t>
-        </is>
-      </c>
-      <c r="K17" s="2" t="inlineStr">
+      <c r="J19" s="2" t="inlineStr">
+        <is>
+          <t>95,08; 96,67</t>
+        </is>
+      </c>
+      <c r="K19" s="2" t="inlineStr">
         <is>
           <t>65,9; 68,27</t>
         </is>
       </c>
-      <c r="L17" s="2" t="inlineStr">
+      <c r="L19" s="2" t="inlineStr">
         <is>
           <t>74,4; 76,46</t>
         </is>
       </c>
-      <c r="M17" s="2" t="inlineStr">
+      <c r="M19" s="2" t="inlineStr">
         <is>
           <t>73,76; 75,88</t>
         </is>
       </c>
-      <c r="N17" s="2" t="inlineStr">
-        <is>
-          <t>94,45; 95,62</t>
-        </is>
-      </c>
-    </row>
-    <row r="18">
-      <c r="A18" t="inlineStr">
+      <c r="N19" s="2" t="inlineStr">
+        <is>
+          <t>94,49; 95,91</t>
+        </is>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" t="inlineStr">
         <is>
           <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
         </is>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="11">
+  <mergeCells count="12">
     <mergeCell ref="A8:A9"/>
     <mergeCell ref="A12:A13"/>
     <mergeCell ref="A4:A5"/>
@@ -1642,6 +1782,7 @@
     <mergeCell ref="G1:J1"/>
     <mergeCell ref="A6:A7"/>
     <mergeCell ref="K1:N1"/>
+    <mergeCell ref="A18:A19"/>
     <mergeCell ref="A14:A15"/>
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/data/trans_dic/P36B08_R-Edad-trans_dic.xlsx
+++ b/data/trans_dic/P36B08_R-Edad-trans_dic.xlsx
@@ -7,7 +7,8 @@
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Variables dicotomizadas" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Porcentajes" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Totales" sheetId="2" state="visible" r:id="rId2"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -724,62 +725,62 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>45,87; 54,58</t>
+          <t>46,02; 54,43</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>46,85; 56,04</t>
+          <t>46,69; 56,27</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>56,09; 66,05</t>
+          <t>56,76; 66,5</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>84,47; 95,0</t>
+          <t>83,72; 94,76</t>
         </is>
       </c>
       <c r="G5" s="2" t="inlineStr">
         <is>
-          <t>48,31; 57,09</t>
+          <t>47,95; 57,28</t>
         </is>
       </c>
       <c r="H5" s="2" t="inlineStr">
         <is>
-          <t>58,69; 68,18</t>
+          <t>59,0; 68,06</t>
         </is>
       </c>
       <c r="I5" s="2" t="inlineStr">
         <is>
-          <t>57,91; 67,88</t>
+          <t>58,28; 67,99</t>
         </is>
       </c>
       <c r="J5" s="2" t="inlineStr">
         <is>
-          <t>84,41; 94,62</t>
+          <t>84,9; 94,56</t>
         </is>
       </c>
       <c r="K5" s="2" t="inlineStr">
         <is>
-          <t>48,4; 54,46</t>
+          <t>48,18; 54,68</t>
         </is>
       </c>
       <c r="L5" s="2" t="inlineStr">
         <is>
-          <t>54,11; 60,67</t>
+          <t>54,21; 61,04</t>
         </is>
       </c>
       <c r="M5" s="2" t="inlineStr">
         <is>
-          <t>58,86; 65,63</t>
+          <t>59,04; 65,63</t>
         </is>
       </c>
       <c r="N5" s="2" t="inlineStr">
         <is>
-          <t>86,16; 93,7</t>
+          <t>86,58; 93,85</t>
         </is>
       </c>
     </row>
@@ -864,62 +865,62 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>58,21; 65,53</t>
+          <t>58,37; 65,72</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>63,4; 70,65</t>
+          <t>63,51; 71,09</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>65,07; 72,45</t>
+          <t>64,58; 72,17</t>
         </is>
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>91,5; 97,1</t>
+          <t>91,47; 97,12</t>
         </is>
       </c>
       <c r="G7" s="2" t="inlineStr">
         <is>
-          <t>65,18; 72,41</t>
+          <t>64,99; 72,62</t>
         </is>
       </c>
       <c r="H7" s="2" t="inlineStr">
         <is>
-          <t>71,83; 79,18</t>
+          <t>71,79; 79,03</t>
         </is>
       </c>
       <c r="I7" s="2" t="inlineStr">
         <is>
-          <t>68,4; 75,82</t>
+          <t>68,67; 75,92</t>
         </is>
       </c>
       <c r="J7" s="2" t="inlineStr">
         <is>
-          <t>93,51; 97,57</t>
+          <t>93,34; 97,66</t>
         </is>
       </c>
       <c r="K7" s="2" t="inlineStr">
         <is>
-          <t>62,51; 67,76</t>
+          <t>62,84; 68,06</t>
         </is>
       </c>
       <c r="L7" s="2" t="inlineStr">
         <is>
-          <t>68,19; 73,47</t>
+          <t>68,33; 73,48</t>
         </is>
       </c>
       <c r="M7" s="2" t="inlineStr">
         <is>
-          <t>67,67; 72,88</t>
+          <t>67,41; 73,1</t>
         </is>
       </c>
       <c r="N7" s="2" t="inlineStr">
         <is>
-          <t>93,51; 96,92</t>
+          <t>93,36; 96,91</t>
         </is>
       </c>
     </row>
@@ -1004,62 +1005,62 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>57,55; 65,11</t>
+          <t>57,49; 65,54</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>69,76; 76,67</t>
+          <t>69,84; 76,94</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>67,39; 74,75</t>
+          <t>67,04; 74,38</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>91,21; 95,63</t>
+          <t>91,37; 95,94</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
         <is>
-          <t>68,74; 75,76</t>
+          <t>68,96; 75,35</t>
         </is>
       </c>
       <c r="H9" s="2" t="inlineStr">
         <is>
-          <t>77,84; 83,87</t>
+          <t>77,64; 83,92</t>
         </is>
       </c>
       <c r="I9" s="2" t="inlineStr">
         <is>
-          <t>74,57; 81,3</t>
+          <t>74,91; 81,14</t>
         </is>
       </c>
       <c r="J9" s="2" t="inlineStr">
         <is>
-          <t>94,11; 97,13</t>
+          <t>94,11; 97,18</t>
         </is>
       </c>
       <c r="K9" s="2" t="inlineStr">
         <is>
-          <t>64,23; 69,59</t>
+          <t>64,67; 70,04</t>
         </is>
       </c>
       <c r="L9" s="2" t="inlineStr">
         <is>
-          <t>74,84; 79,47</t>
+          <t>74,83; 79,68</t>
         </is>
       </c>
       <c r="M9" s="2" t="inlineStr">
         <is>
-          <t>72,01; 76,75</t>
+          <t>72,03; 76,74</t>
         </is>
       </c>
       <c r="N9" s="2" t="inlineStr">
         <is>
-          <t>93,31; 96,1</t>
+          <t>93,41; 96,05</t>
         </is>
       </c>
     </row>
@@ -1144,62 +1145,62 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>59,75; 68,49</t>
+          <t>60,32; 68,63</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>68,91; 76,4</t>
+          <t>68,35; 76,22</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>67,37; 74,94</t>
+          <t>67,08; 74,58</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>93,71; 98,29</t>
+          <t>93,74; 98,49</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
         <is>
-          <t>73,37; 80,76</t>
+          <t>73,43; 80,77</t>
         </is>
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>79,34; 85,92</t>
+          <t>79,61; 86,15</t>
         </is>
       </c>
       <c r="I11" s="2" t="inlineStr">
         <is>
-          <t>77,18; 83,55</t>
+          <t>77,34; 83,83</t>
         </is>
       </c>
       <c r="J11" s="2" t="inlineStr">
         <is>
-          <t>95,17; 97,41</t>
+          <t>95,21; 97,42</t>
         </is>
       </c>
       <c r="K11" s="2" t="inlineStr">
         <is>
-          <t>67,84; 73,43</t>
+          <t>67,98; 73,79</t>
         </is>
       </c>
       <c r="L11" s="2" t="inlineStr">
         <is>
-          <t>75,25; 80,15</t>
+          <t>75,37; 80,51</t>
         </is>
       </c>
       <c r="M11" s="2" t="inlineStr">
         <is>
-          <t>73,32; 78,28</t>
+          <t>73,07; 78,19</t>
         </is>
       </c>
       <c r="N11" s="2" t="inlineStr">
         <is>
-          <t>95,01; 97,83</t>
+          <t>95,04; 97,65</t>
         </is>
       </c>
     </row>
@@ -1284,62 +1285,62 @@
       </c>
       <c r="C13" s="2" t="inlineStr">
         <is>
-          <t>65,53; 75,09</t>
+          <t>65,31; 74,63</t>
         </is>
       </c>
       <c r="D13" s="2" t="inlineStr">
         <is>
-          <t>72,83; 81,09</t>
+          <t>72,54; 81,33</t>
         </is>
       </c>
       <c r="E13" s="2" t="inlineStr">
         <is>
-          <t>73,95; 81,84</t>
+          <t>74,06; 82,1</t>
         </is>
       </c>
       <c r="F13" s="2" t="inlineStr">
         <is>
-          <t>91,14; 95,03</t>
+          <t>91,1; 95,1</t>
         </is>
       </c>
       <c r="G13" s="2" t="inlineStr">
         <is>
-          <t>70,04; 78,45</t>
+          <t>70,15; 78,87</t>
         </is>
       </c>
       <c r="H13" s="2" t="inlineStr">
         <is>
-          <t>78,03; 85,94</t>
+          <t>78,39; 85,69</t>
         </is>
       </c>
       <c r="I13" s="2" t="inlineStr">
         <is>
-          <t>78,99; 86,11</t>
+          <t>79,29; 86,17</t>
         </is>
       </c>
       <c r="J13" s="2" t="inlineStr">
         <is>
-          <t>95,12; 97,5</t>
+          <t>95,03; 97,53</t>
         </is>
       </c>
       <c r="K13" s="2" t="inlineStr">
         <is>
-          <t>68,92; 75,77</t>
+          <t>69,41; 75,69</t>
         </is>
       </c>
       <c r="L13" s="2" t="inlineStr">
         <is>
-          <t>77,03; 82,61</t>
+          <t>76,92; 82,63</t>
         </is>
       </c>
       <c r="M13" s="2" t="inlineStr">
         <is>
-          <t>77,55; 82,93</t>
+          <t>77,68; 83,2</t>
         </is>
       </c>
       <c r="N13" s="2" t="inlineStr">
         <is>
-          <t>93,57; 95,88</t>
+          <t>93,58; 95,92</t>
         </is>
       </c>
     </row>
@@ -1424,62 +1425,62 @@
       </c>
       <c r="C15" s="2" t="inlineStr">
         <is>
-          <t>67,18; 77,31</t>
+          <t>67,14; 77,53</t>
         </is>
       </c>
       <c r="D15" s="2" t="inlineStr">
         <is>
-          <t>77,13; 85,9</t>
+          <t>77,26; 86,98</t>
         </is>
       </c>
       <c r="E15" s="2" t="inlineStr">
         <is>
-          <t>76,22; 84,86</t>
+          <t>75,82; 84,49</t>
         </is>
       </c>
       <c r="F15" s="2" t="inlineStr">
         <is>
-          <t>93,39; 96,92</t>
+          <t>92,9; 96,85</t>
         </is>
       </c>
       <c r="G15" s="2" t="inlineStr">
         <is>
-          <t>73,55; 81,87</t>
+          <t>73,86; 82,35</t>
         </is>
       </c>
       <c r="H15" s="2" t="inlineStr">
         <is>
-          <t>83,49; 90,51</t>
+          <t>83,78; 90,68</t>
         </is>
       </c>
       <c r="I15" s="2" t="inlineStr">
         <is>
-          <t>80,63; 88,15</t>
+          <t>80,54; 87,96</t>
         </is>
       </c>
       <c r="J15" s="2" t="inlineStr">
         <is>
-          <t>96,26; 99,2</t>
+          <t>96,23; 99,22</t>
         </is>
       </c>
       <c r="K15" s="2" t="inlineStr">
         <is>
-          <t>72,16; 78,66</t>
+          <t>72,37; 78,71</t>
         </is>
       </c>
       <c r="L15" s="2" t="inlineStr">
         <is>
-          <t>81,89; 87,69</t>
+          <t>81,95; 87,43</t>
         </is>
       </c>
       <c r="M15" s="2" t="inlineStr">
         <is>
-          <t>79,95; 85,66</t>
+          <t>79,55; 85,21</t>
         </is>
       </c>
       <c r="N15" s="2" t="inlineStr">
         <is>
-          <t>95,6; 98,53</t>
+          <t>95,52; 98,4</t>
         </is>
       </c>
     </row>
@@ -1564,62 +1565,62 @@
       </c>
       <c r="C17" s="2" t="inlineStr">
         <is>
-          <t>69,19; 80,18</t>
+          <t>68,19; 80,02</t>
         </is>
       </c>
       <c r="D17" s="2" t="inlineStr">
         <is>
-          <t>79,48; 89,6</t>
+          <t>78,4; 89,02</t>
         </is>
       </c>
       <c r="E17" s="2" t="inlineStr">
         <is>
-          <t>78,49; 87,14</t>
+          <t>78,52; 87,23</t>
         </is>
       </c>
       <c r="F17" s="2" t="inlineStr">
         <is>
-          <t>94,07; 97,87</t>
+          <t>94,13; 97,82</t>
         </is>
       </c>
       <c r="G17" s="2" t="inlineStr">
         <is>
-          <t>71,97; 82,26</t>
+          <t>72,36; 82,3</t>
         </is>
       </c>
       <c r="H17" s="2" t="inlineStr">
         <is>
-          <t>81,2; 88,68</t>
+          <t>81,21; 88,5</t>
         </is>
       </c>
       <c r="I17" s="2" t="inlineStr">
         <is>
-          <t>74,85; 83,86</t>
+          <t>74,43; 83,67</t>
         </is>
       </c>
       <c r="J17" s="2" t="inlineStr">
         <is>
-          <t>94,17; 97,11</t>
+          <t>94,2; 97,04</t>
         </is>
       </c>
       <c r="K17" s="2" t="inlineStr">
         <is>
-          <t>72,86; 80,4</t>
+          <t>73,19; 80,69</t>
         </is>
       </c>
       <c r="L17" s="2" t="inlineStr">
         <is>
-          <t>81,67; 87,61</t>
+          <t>81,68; 87,86</t>
         </is>
       </c>
       <c r="M17" s="2" t="inlineStr">
         <is>
-          <t>77,27; 83,85</t>
+          <t>77,46; 83,71</t>
         </is>
       </c>
       <c r="N17" s="2" t="inlineStr">
         <is>
-          <t>94,84; 97,03</t>
+          <t>94,74; 96,93</t>
         </is>
       </c>
     </row>
@@ -1704,62 +1705,62 @@
       </c>
       <c r="C19" s="2" t="inlineStr">
         <is>
-          <t>61,68; 64,9</t>
+          <t>61,67; 64,96</t>
         </is>
       </c>
       <c r="D19" s="2" t="inlineStr">
         <is>
-          <t>69,56; 72,74</t>
+          <t>69,43; 72,81</t>
         </is>
       </c>
       <c r="E19" s="2" t="inlineStr">
         <is>
-          <t>70,84; 73,99</t>
+          <t>70,68; 73,8</t>
         </is>
       </c>
       <c r="F19" s="2" t="inlineStr">
         <is>
-          <t>93,36; 95,67</t>
+          <t>93,28; 95,75</t>
         </is>
       </c>
       <c r="G19" s="2" t="inlineStr">
         <is>
-          <t>69,41; 72,57</t>
+          <t>69,51; 72,49</t>
         </is>
       </c>
       <c r="H19" s="2" t="inlineStr">
         <is>
-          <t>78,08; 80,86</t>
+          <t>78,13; 80,87</t>
         </is>
       </c>
       <c r="I19" s="2" t="inlineStr">
         <is>
-          <t>75,86; 78,75</t>
+          <t>75,83; 78,9</t>
         </is>
       </c>
       <c r="J19" s="2" t="inlineStr">
         <is>
-          <t>95,08; 96,67</t>
+          <t>95,11; 96,66</t>
         </is>
       </c>
       <c r="K19" s="2" t="inlineStr">
         <is>
-          <t>65,9; 68,27</t>
+          <t>66,12; 68,36</t>
         </is>
       </c>
       <c r="L19" s="2" t="inlineStr">
         <is>
-          <t>74,4; 76,46</t>
+          <t>74,39; 76,45</t>
         </is>
       </c>
       <c r="M19" s="2" t="inlineStr">
         <is>
-          <t>73,76; 75,88</t>
+          <t>73,86; 76,06</t>
         </is>
       </c>
       <c r="N19" s="2" t="inlineStr">
         <is>
-          <t>94,49; 95,91</t>
+          <t>94,5; 95,88</t>
         </is>
       </c>
     </row>
@@ -1787,4 +1788,1839 @@
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:N28"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
+      <selection pane="topRight"/>
+      <selection pane="bottomLeft"/>
+      <selection pane="bottomRight" activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <cols>
+    <col width="14" customWidth="1" min="1" max="1"/>
+    <col width="14" customWidth="1" min="2" max="2"/>
+    <col width="14" customWidth="1" min="3" max="3"/>
+    <col width="14" customWidth="1" min="4" max="4"/>
+    <col width="14" customWidth="1" min="5" max="5"/>
+    <col width="14" customWidth="1" min="6" max="6"/>
+    <col width="14" customWidth="1" min="7" max="7"/>
+    <col width="14" customWidth="1" min="8" max="8"/>
+    <col width="14" customWidth="1" min="9" max="9"/>
+    <col width="14" customWidth="1" min="10" max="10"/>
+    <col width="14" customWidth="1" min="11" max="11"/>
+    <col width="14" customWidth="1" min="12" max="12"/>
+    <col width="14" customWidth="1" min="13" max="13"/>
+    <col width="14" customWidth="1" min="14" max="14"/>
+  </cols>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="1" t="inlineStr">
+        <is>
+          <t>Población que consumen 3 veces o más al día verduras, ensaladas y hortalizas</t>
+        </is>
+      </c>
+      <c r="B1" s="2" t="n"/>
+      <c r="C1" s="3" t="inlineStr">
+        <is>
+          <t>Hombre</t>
+        </is>
+      </c>
+      <c r="D1" s="3" t="n"/>
+      <c r="E1" s="3" t="n"/>
+      <c r="F1" s="3" t="n"/>
+      <c r="G1" s="3" t="inlineStr">
+        <is>
+          <t>Mujer</t>
+        </is>
+      </c>
+      <c r="H1" s="3" t="n"/>
+      <c r="I1" s="3" t="n"/>
+      <c r="J1" s="3" t="n"/>
+      <c r="K1" s="3" t="inlineStr">
+        <is>
+          <t>Total</t>
+        </is>
+      </c>
+      <c r="L1" s="3" t="n"/>
+      <c r="M1" s="3" t="n"/>
+      <c r="N1" s="3" t="n"/>
+    </row>
+    <row r="2">
+      <c r="A2" s="4" t="n"/>
+      <c r="B2" s="2" t="n"/>
+      <c r="C2" s="3" t="inlineStr">
+        <is>
+          <t>2007</t>
+        </is>
+      </c>
+      <c r="D2" s="3" t="inlineStr">
+        <is>
+          <t>2012</t>
+        </is>
+      </c>
+      <c r="E2" s="3" t="inlineStr">
+        <is>
+          <t>2016</t>
+        </is>
+      </c>
+      <c r="F2" s="3" t="inlineStr">
+        <is>
+          <t>2023</t>
+        </is>
+      </c>
+      <c r="G2" s="3" t="inlineStr">
+        <is>
+          <t>2007</t>
+        </is>
+      </c>
+      <c r="H2" s="3" t="inlineStr">
+        <is>
+          <t>2012</t>
+        </is>
+      </c>
+      <c r="I2" s="3" t="inlineStr">
+        <is>
+          <t>2016</t>
+        </is>
+      </c>
+      <c r="J2" s="3" t="inlineStr">
+        <is>
+          <t>2023</t>
+        </is>
+      </c>
+      <c r="K2" s="3" t="inlineStr">
+        <is>
+          <t>2007</t>
+        </is>
+      </c>
+      <c r="L2" s="3" t="inlineStr">
+        <is>
+          <t>2012</t>
+        </is>
+      </c>
+      <c r="M2" s="3" t="inlineStr">
+        <is>
+          <t>2016</t>
+        </is>
+      </c>
+      <c r="N2" s="3" t="inlineStr">
+        <is>
+          <t>2023</t>
+        </is>
+      </c>
+    </row>
+    <row r="3" hidden="1">
+      <c r="A3" s="4" t="n"/>
+      <c r="B3" s="2" t="n"/>
+      <c r="C3" s="2" t="n"/>
+      <c r="D3" s="2" t="n"/>
+      <c r="E3" s="2" t="n"/>
+      <c r="F3" s="2" t="n"/>
+      <c r="G3" s="2" t="n"/>
+      <c r="H3" s="2" t="n"/>
+      <c r="I3" s="2" t="n"/>
+      <c r="J3" s="2" t="n"/>
+      <c r="K3" s="2" t="n"/>
+      <c r="L3" s="2" t="n"/>
+      <c r="M3" s="2" t="n"/>
+      <c r="N3" s="2" t="n"/>
+    </row>
+    <row r="4">
+      <c r="A4" s="1" t="inlineStr">
+        <is>
+          <t>16-24</t>
+        </is>
+      </c>
+      <c r="B4" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C4" s="2" t="inlineStr">
+        <is>
+          <t>248</t>
+        </is>
+      </c>
+      <c r="D4" s="2" t="inlineStr">
+        <is>
+          <t>226</t>
+        </is>
+      </c>
+      <c r="E4" s="2" t="inlineStr">
+        <is>
+          <t>241</t>
+        </is>
+      </c>
+      <c r="F4" s="2" t="inlineStr">
+        <is>
+          <t>159</t>
+        </is>
+      </c>
+      <c r="G4" s="2" t="inlineStr">
+        <is>
+          <t>256</t>
+        </is>
+      </c>
+      <c r="H4" s="2" t="inlineStr">
+        <is>
+          <t>268</t>
+        </is>
+      </c>
+      <c r="I4" s="2" t="inlineStr">
+        <is>
+          <t>253</t>
+        </is>
+      </c>
+      <c r="J4" s="2" t="inlineStr">
+        <is>
+          <t>191</t>
+        </is>
+      </c>
+      <c r="K4" s="2" t="inlineStr">
+        <is>
+          <t>504</t>
+        </is>
+      </c>
+      <c r="L4" s="2" t="inlineStr">
+        <is>
+          <t>494</t>
+        </is>
+      </c>
+      <c r="M4" s="2" t="inlineStr">
+        <is>
+          <t>494</t>
+        </is>
+      </c>
+      <c r="N4" s="2" t="inlineStr">
+        <is>
+          <t>350</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="1" t="n"/>
+      <c r="B5" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C5" s="2" t="inlineStr">
+        <is>
+          <t>246890</t>
+        </is>
+      </c>
+      <c r="D5" s="2" t="inlineStr">
+        <is>
+          <t>233283</t>
+        </is>
+      </c>
+      <c r="E5" s="2" t="inlineStr">
+        <is>
+          <t>256584</t>
+        </is>
+      </c>
+      <c r="F5" s="2" t="inlineStr">
+        <is>
+          <t>362717</t>
+        </is>
+      </c>
+      <c r="G5" s="2" t="inlineStr">
+        <is>
+          <t>246279</t>
+        </is>
+      </c>
+      <c r="H5" s="2" t="inlineStr">
+        <is>
+          <t>273813</t>
+        </is>
+      </c>
+      <c r="I5" s="2" t="inlineStr">
+        <is>
+          <t>248452</t>
+        </is>
+      </c>
+      <c r="J5" s="2" t="inlineStr">
+        <is>
+          <t>284493</t>
+        </is>
+      </c>
+      <c r="K5" s="2" t="inlineStr">
+        <is>
+          <t>493169</t>
+        </is>
+      </c>
+      <c r="L5" s="2" t="inlineStr">
+        <is>
+          <t>507096</t>
+        </is>
+      </c>
+      <c r="M5" s="2" t="inlineStr">
+        <is>
+          <t>505036</t>
+        </is>
+      </c>
+      <c r="N5" s="2" t="inlineStr">
+        <is>
+          <t>647210</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="1" t="n"/>
+      <c r="B6" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C6" s="2" t="inlineStr">
+        <is>
+          <t>227355; 268916</t>
+        </is>
+      </c>
+      <c r="D6" s="2" t="inlineStr">
+        <is>
+          <t>212051; 255537</t>
+        </is>
+      </c>
+      <c r="E6" s="2" t="inlineStr">
+        <is>
+          <t>236283; 276811</t>
+        </is>
+      </c>
+      <c r="F6" s="2" t="inlineStr">
+        <is>
+          <t>334853; 379010</t>
+        </is>
+      </c>
+      <c r="G6" s="2" t="inlineStr">
+        <is>
+          <t>223652; 267169</t>
+        </is>
+      </c>
+      <c r="H6" s="2" t="inlineStr">
+        <is>
+          <t>253272; 292177</t>
+        </is>
+      </c>
+      <c r="I6" s="2" t="inlineStr">
+        <is>
+          <t>229525; 267758</t>
+        </is>
+      </c>
+      <c r="J6" s="2" t="inlineStr">
+        <is>
+          <t>265902; 296151</t>
+        </is>
+      </c>
+      <c r="K6" s="2" t="inlineStr">
+        <is>
+          <t>462771; 525242</t>
+        </is>
+      </c>
+      <c r="L6" s="2" t="inlineStr">
+        <is>
+          <t>478877; 539207</t>
+        </is>
+      </c>
+      <c r="M6" s="2" t="inlineStr">
+        <is>
+          <t>478260; 531661</t>
+        </is>
+      </c>
+      <c r="N6" s="2" t="inlineStr">
+        <is>
+          <t>617455; 669301</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="1" t="inlineStr">
+        <is>
+          <t>25-34</t>
+        </is>
+      </c>
+      <c r="B7" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C7" s="2" t="inlineStr">
+        <is>
+          <t>430</t>
+        </is>
+      </c>
+      <c r="D7" s="2" t="inlineStr">
+        <is>
+          <t>445</t>
+        </is>
+      </c>
+      <c r="E7" s="2" t="inlineStr">
+        <is>
+          <t>386</t>
+        </is>
+      </c>
+      <c r="F7" s="2" t="inlineStr">
+        <is>
+          <t>286</t>
+        </is>
+      </c>
+      <c r="G7" s="2" t="inlineStr">
+        <is>
+          <t>405</t>
+        </is>
+      </c>
+      <c r="H7" s="2" t="inlineStr">
+        <is>
+          <t>428</t>
+        </is>
+      </c>
+      <c r="I7" s="2" t="inlineStr">
+        <is>
+          <t>416</t>
+        </is>
+      </c>
+      <c r="J7" s="2" t="inlineStr">
+        <is>
+          <t>439</t>
+        </is>
+      </c>
+      <c r="K7" s="2" t="inlineStr">
+        <is>
+          <t>835</t>
+        </is>
+      </c>
+      <c r="L7" s="2" t="inlineStr">
+        <is>
+          <t>873</t>
+        </is>
+      </c>
+      <c r="M7" s="2" t="inlineStr">
+        <is>
+          <t>802</t>
+        </is>
+      </c>
+      <c r="N7" s="2" t="inlineStr">
+        <is>
+          <t>725</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="1" t="n"/>
+      <c r="B8" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C8" s="2" t="inlineStr">
+        <is>
+          <t>455705</t>
+        </is>
+      </c>
+      <c r="D8" s="2" t="inlineStr">
+        <is>
+          <t>461126</t>
+        </is>
+      </c>
+      <c r="E8" s="2" t="inlineStr">
+        <is>
+          <t>402690</t>
+        </is>
+      </c>
+      <c r="F8" s="2" t="inlineStr">
+        <is>
+          <t>401827</t>
+        </is>
+      </c>
+      <c r="G8" s="2" t="inlineStr">
+        <is>
+          <t>432060</t>
+        </is>
+      </c>
+      <c r="H8" s="2" t="inlineStr">
+        <is>
+          <t>460344</t>
+        </is>
+      </c>
+      <c r="I8" s="2" t="inlineStr">
+        <is>
+          <t>405438</t>
+        </is>
+      </c>
+      <c r="J8" s="2" t="inlineStr">
+        <is>
+          <t>488829</t>
+        </is>
+      </c>
+      <c r="K8" s="2" t="inlineStr">
+        <is>
+          <t>887765</t>
+        </is>
+      </c>
+      <c r="L8" s="2" t="inlineStr">
+        <is>
+          <t>921470</t>
+        </is>
+      </c>
+      <c r="M8" s="2" t="inlineStr">
+        <is>
+          <t>808128</t>
+        </is>
+      </c>
+      <c r="N8" s="2" t="inlineStr">
+        <is>
+          <t>890656</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="1" t="n"/>
+      <c r="B9" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C9" s="2" t="inlineStr">
+        <is>
+          <t>429334; 483345</t>
+        </is>
+      </c>
+      <c r="D9" s="2" t="inlineStr">
+        <is>
+          <t>436358; 488437</t>
+        </is>
+      </c>
+      <c r="E9" s="2" t="inlineStr">
+        <is>
+          <t>380039; 424691</t>
+        </is>
+      </c>
+      <c r="F9" s="2" t="inlineStr">
+        <is>
+          <t>387430; 411333</t>
+        </is>
+      </c>
+      <c r="G9" s="2" t="inlineStr">
+        <is>
+          <t>406530; 454210</t>
+        </is>
+      </c>
+      <c r="H9" s="2" t="inlineStr">
+        <is>
+          <t>438104; 482287</t>
+        </is>
+      </c>
+      <c r="I9" s="2" t="inlineStr">
+        <is>
+          <t>384368; 424933</t>
+        </is>
+      </c>
+      <c r="J9" s="2" t="inlineStr">
+        <is>
+          <t>476650; 498668</t>
+        </is>
+      </c>
+      <c r="K9" s="2" t="inlineStr">
+        <is>
+          <t>855245; 926328</t>
+        </is>
+      </c>
+      <c r="L9" s="2" t="inlineStr">
+        <is>
+          <t>886531; 953341</t>
+        </is>
+      </c>
+      <c r="M9" s="2" t="inlineStr">
+        <is>
+          <t>773988; 839289</t>
+        </is>
+      </c>
+      <c r="N9" s="2" t="inlineStr">
+        <is>
+          <t>872159; 905307</t>
+        </is>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="1" t="inlineStr">
+        <is>
+          <t>35-44</t>
+        </is>
+      </c>
+      <c r="B10" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C10" s="2" t="inlineStr">
+        <is>
+          <t>379</t>
+        </is>
+      </c>
+      <c r="D10" s="2" t="inlineStr">
+        <is>
+          <t>475</t>
+        </is>
+      </c>
+      <c r="E10" s="2" t="inlineStr">
+        <is>
+          <t>452</t>
+        </is>
+      </c>
+      <c r="F10" s="2" t="inlineStr">
+        <is>
+          <t>515</t>
+        </is>
+      </c>
+      <c r="G10" s="2" t="inlineStr">
+        <is>
+          <t>472</t>
+        </is>
+      </c>
+      <c r="H10" s="2" t="inlineStr">
+        <is>
+          <t>542</t>
+        </is>
+      </c>
+      <c r="I10" s="2" t="inlineStr">
+        <is>
+          <t>515</t>
+        </is>
+      </c>
+      <c r="J10" s="2" t="inlineStr">
+        <is>
+          <t>816</t>
+        </is>
+      </c>
+      <c r="K10" s="2" t="inlineStr">
+        <is>
+          <t>851</t>
+        </is>
+      </c>
+      <c r="L10" s="2" t="inlineStr">
+        <is>
+          <t>1017</t>
+        </is>
+      </c>
+      <c r="M10" s="2" t="inlineStr">
+        <is>
+          <t>967</t>
+        </is>
+      </c>
+      <c r="N10" s="2" t="inlineStr">
+        <is>
+          <t>1331</t>
+        </is>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="1" t="n"/>
+      <c r="B11" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C11" s="2" t="inlineStr">
+        <is>
+          <t>391987</t>
+        </is>
+      </c>
+      <c r="D11" s="2" t="inlineStr">
+        <is>
+          <t>500568</t>
+        </is>
+      </c>
+      <c r="E11" s="2" t="inlineStr">
+        <is>
+          <t>474741</t>
+        </is>
+      </c>
+      <c r="F11" s="2" t="inlineStr">
+        <is>
+          <t>503213</t>
+        </is>
+      </c>
+      <c r="G11" s="2" t="inlineStr">
+        <is>
+          <t>498441</t>
+        </is>
+      </c>
+      <c r="H11" s="2" t="inlineStr">
+        <is>
+          <t>573931</t>
+        </is>
+      </c>
+      <c r="I11" s="2" t="inlineStr">
+        <is>
+          <t>514232</t>
+        </is>
+      </c>
+      <c r="J11" s="2" t="inlineStr">
+        <is>
+          <t>519681</t>
+        </is>
+      </c>
+      <c r="K11" s="2" t="inlineStr">
+        <is>
+          <t>890428</t>
+        </is>
+      </c>
+      <c r="L11" s="2" t="inlineStr">
+        <is>
+          <t>1074498</t>
+        </is>
+      </c>
+      <c r="M11" s="2" t="inlineStr">
+        <is>
+          <t>988973</t>
+        </is>
+      </c>
+      <c r="N11" s="2" t="inlineStr">
+        <is>
+          <t>1022893</t>
+        </is>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="1" t="n"/>
+      <c r="B12" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C12" s="2" t="inlineStr">
+        <is>
+          <t>367176; 418579</t>
+        </is>
+      </c>
+      <c r="D12" s="2" t="inlineStr">
+        <is>
+          <t>475493; 523809</t>
+        </is>
+      </c>
+      <c r="E12" s="2" t="inlineStr">
+        <is>
+          <t>447954; 497004</t>
+        </is>
+      </c>
+      <c r="F12" s="2" t="inlineStr">
+        <is>
+          <t>489884; 514384</t>
+        </is>
+      </c>
+      <c r="G12" s="2" t="inlineStr">
+        <is>
+          <t>475625; 519711</t>
+        </is>
+      </c>
+      <c r="H12" s="2" t="inlineStr">
+        <is>
+          <t>551109; 595755</t>
+        </is>
+      </c>
+      <c r="I12" s="2" t="inlineStr">
+        <is>
+          <t>493928; 535011</t>
+        </is>
+      </c>
+      <c r="J12" s="2" t="inlineStr">
+        <is>
+          <t>510508; 527145</t>
+        </is>
+      </c>
+      <c r="K12" s="2" t="inlineStr">
+        <is>
+          <t>859070; 930465</t>
+        </is>
+      </c>
+      <c r="L12" s="2" t="inlineStr">
+        <is>
+          <t>1040728; 1108122</t>
+        </is>
+      </c>
+      <c r="M12" s="2" t="inlineStr">
+        <is>
+          <t>956294; 1018820</t>
+        </is>
+      </c>
+      <c r="N12" s="2" t="inlineStr">
+        <is>
+          <t>1007511; 1036036</t>
+        </is>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="1" t="inlineStr">
+        <is>
+          <t>45-54</t>
+        </is>
+      </c>
+      <c r="B13" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C13" s="2" t="inlineStr">
+        <is>
+          <t>314</t>
+        </is>
+      </c>
+      <c r="D13" s="2" t="inlineStr">
+        <is>
+          <t>396</t>
+        </is>
+      </c>
+      <c r="E13" s="2" t="inlineStr">
+        <is>
+          <t>412</t>
+        </is>
+      </c>
+      <c r="F13" s="2" t="inlineStr">
+        <is>
+          <t>632</t>
+        </is>
+      </c>
+      <c r="G13" s="2" t="inlineStr">
+        <is>
+          <t>387</t>
+        </is>
+      </c>
+      <c r="H13" s="2" t="inlineStr">
+        <is>
+          <t>445</t>
+        </is>
+      </c>
+      <c r="I13" s="2" t="inlineStr">
+        <is>
+          <t>483</t>
+        </is>
+      </c>
+      <c r="J13" s="2" t="inlineStr">
+        <is>
+          <t>1097</t>
+        </is>
+      </c>
+      <c r="K13" s="2" t="inlineStr">
+        <is>
+          <t>701</t>
+        </is>
+      </c>
+      <c r="L13" s="2" t="inlineStr">
+        <is>
+          <t>841</t>
+        </is>
+      </c>
+      <c r="M13" s="2" t="inlineStr">
+        <is>
+          <t>895</t>
+        </is>
+      </c>
+      <c r="N13" s="2" t="inlineStr">
+        <is>
+          <t>1729</t>
+        </is>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="1" t="n"/>
+      <c r="B14" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C14" s="2" t="inlineStr">
+        <is>
+          <t>334366</t>
+        </is>
+      </c>
+      <c r="D14" s="2" t="inlineStr">
+        <is>
+          <t>444497</t>
+        </is>
+      </c>
+      <c r="E14" s="2" t="inlineStr">
+        <is>
+          <t>454367</t>
+        </is>
+      </c>
+      <c r="F14" s="2" t="inlineStr">
+        <is>
+          <t>852813</t>
+        </is>
+      </c>
+      <c r="G14" s="2" t="inlineStr">
+        <is>
+          <t>397869</t>
+        </is>
+      </c>
+      <c r="H14" s="2" t="inlineStr">
+        <is>
+          <t>508516</t>
+        </is>
+      </c>
+      <c r="I14" s="2" t="inlineStr">
+        <is>
+          <t>519936</t>
+        </is>
+      </c>
+      <c r="J14" s="2" t="inlineStr">
+        <is>
+          <t>686008</t>
+        </is>
+      </c>
+      <c r="K14" s="2" t="inlineStr">
+        <is>
+          <t>732235</t>
+        </is>
+      </c>
+      <c r="L14" s="2" t="inlineStr">
+        <is>
+          <t>953013</t>
+        </is>
+      </c>
+      <c r="M14" s="2" t="inlineStr">
+        <is>
+          <t>974302</t>
+        </is>
+      </c>
+      <c r="N14" s="2" t="inlineStr">
+        <is>
+          <t>1538821</t>
+        </is>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="1" t="n"/>
+      <c r="B15" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C15" s="2" t="inlineStr">
+        <is>
+          <t>313161; 356280</t>
+        </is>
+      </c>
+      <c r="D15" s="2" t="inlineStr">
+        <is>
+          <t>418720; 466925</t>
+        </is>
+      </c>
+      <c r="E15" s="2" t="inlineStr">
+        <is>
+          <t>428633; 476591</t>
+        </is>
+      </c>
+      <c r="F15" s="2" t="inlineStr">
+        <is>
+          <t>832211; 874419</t>
+        </is>
+      </c>
+      <c r="G15" s="2" t="inlineStr">
+        <is>
+          <t>378633; 416467</t>
+        </is>
+      </c>
+      <c r="H15" s="2" t="inlineStr">
+        <is>
+          <t>487267; 527262</t>
+        </is>
+      </c>
+      <c r="I15" s="2" t="inlineStr">
+        <is>
+          <t>500297; 542282</t>
+        </is>
+      </c>
+      <c r="J15" s="2" t="inlineStr">
+        <is>
+          <t>677689; 693441</t>
+        </is>
+      </c>
+      <c r="K15" s="2" t="inlineStr">
+        <is>
+          <t>703432; 763580</t>
+        </is>
+      </c>
+      <c r="L15" s="2" t="inlineStr">
+        <is>
+          <t>923062; 985977</t>
+        </is>
+      </c>
+      <c r="M15" s="2" t="inlineStr">
+        <is>
+          <t>939625; 1005416</t>
+        </is>
+      </c>
+      <c r="N15" s="2" t="inlineStr">
+        <is>
+          <t>1520295; 1562000</t>
+        </is>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="1" t="inlineStr">
+        <is>
+          <t>55-64</t>
+        </is>
+      </c>
+      <c r="B16" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C16" s="2" t="inlineStr">
+        <is>
+          <t>275</t>
+        </is>
+      </c>
+      <c r="D16" s="2" t="inlineStr">
+        <is>
+          <t>304</t>
+        </is>
+      </c>
+      <c r="E16" s="2" t="inlineStr">
+        <is>
+          <t>329</t>
+        </is>
+      </c>
+      <c r="F16" s="2" t="inlineStr">
+        <is>
+          <t>621</t>
+        </is>
+      </c>
+      <c r="G16" s="2" t="inlineStr">
+        <is>
+          <t>295</t>
+        </is>
+      </c>
+      <c r="H16" s="2" t="inlineStr">
+        <is>
+          <t>334</t>
+        </is>
+      </c>
+      <c r="I16" s="2" t="inlineStr">
+        <is>
+          <t>356</t>
+        </is>
+      </c>
+      <c r="J16" s="2" t="inlineStr">
+        <is>
+          <t>969</t>
+        </is>
+      </c>
+      <c r="K16" s="2" t="inlineStr">
+        <is>
+          <t>570</t>
+        </is>
+      </c>
+      <c r="L16" s="2" t="inlineStr">
+        <is>
+          <t>638</t>
+        </is>
+      </c>
+      <c r="M16" s="2" t="inlineStr">
+        <is>
+          <t>685</t>
+        </is>
+      </c>
+      <c r="N16" s="2" t="inlineStr">
+        <is>
+          <t>1590</t>
+        </is>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="1" t="n"/>
+      <c r="B17" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C17" s="2" t="inlineStr">
+        <is>
+          <t>271735</t>
+        </is>
+      </c>
+      <c r="D17" s="2" t="inlineStr">
+        <is>
+          <t>331738</t>
+        </is>
+      </c>
+      <c r="E17" s="2" t="inlineStr">
+        <is>
+          <t>370205</t>
+        </is>
+      </c>
+      <c r="F17" s="2" t="inlineStr">
+        <is>
+          <t>521815</t>
+        </is>
+      </c>
+      <c r="G17" s="2" t="inlineStr">
+        <is>
+          <t>300748</t>
+        </is>
+      </c>
+      <c r="H17" s="2" t="inlineStr">
+        <is>
+          <t>367173</t>
+        </is>
+      </c>
+      <c r="I17" s="2" t="inlineStr">
+        <is>
+          <t>408524</t>
+        </is>
+      </c>
+      <c r="J17" s="2" t="inlineStr">
+        <is>
+          <t>528335</t>
+        </is>
+      </c>
+      <c r="K17" s="2" t="inlineStr">
+        <is>
+          <t>572483</t>
+        </is>
+      </c>
+      <c r="L17" s="2" t="inlineStr">
+        <is>
+          <t>698911</t>
+        </is>
+      </c>
+      <c r="M17" s="2" t="inlineStr">
+        <is>
+          <t>778728</t>
+        </is>
+      </c>
+      <c r="N17" s="2" t="inlineStr">
+        <is>
+          <t>1050150</t>
+        </is>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="1" t="n"/>
+      <c r="B18" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C18" s="2" t="inlineStr">
+        <is>
+          <t>252031; 287984</t>
+        </is>
+      </c>
+      <c r="D18" s="2" t="inlineStr">
+        <is>
+          <t>311518; 349267</t>
+        </is>
+      </c>
+      <c r="E18" s="2" t="inlineStr">
+        <is>
+          <t>351702; 389858</t>
+        </is>
+      </c>
+      <c r="F18" s="2" t="inlineStr">
+        <is>
+          <t>509728; 532070</t>
+        </is>
+      </c>
+      <c r="G18" s="2" t="inlineStr">
+        <is>
+          <t>283396; 318605</t>
+        </is>
+      </c>
+      <c r="H18" s="2" t="inlineStr">
+        <is>
+          <t>349606; 382136</t>
+        </is>
+      </c>
+      <c r="I18" s="2" t="inlineStr">
+        <is>
+          <t>391270; 425205</t>
+        </is>
+      </c>
+      <c r="J18" s="2" t="inlineStr">
+        <is>
+          <t>520680; 534392</t>
+        </is>
+      </c>
+      <c r="K18" s="2" t="inlineStr">
+        <is>
+          <t>548245; 597880</t>
+        </is>
+      </c>
+      <c r="L18" s="2" t="inlineStr">
+        <is>
+          <t>673351; 723365</t>
+        </is>
+      </c>
+      <c r="M18" s="2" t="inlineStr">
+        <is>
+          <t>752218; 805648</t>
+        </is>
+      </c>
+      <c r="N18" s="2" t="inlineStr">
+        <is>
+          <t>1036337; 1062215</t>
+        </is>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" s="1" t="inlineStr">
+        <is>
+          <t>65-74</t>
+        </is>
+      </c>
+      <c r="B19" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C19" s="2" t="inlineStr">
+        <is>
+          <t>219</t>
+        </is>
+      </c>
+      <c r="D19" s="2" t="inlineStr">
+        <is>
+          <t>227</t>
+        </is>
+      </c>
+      <c r="E19" s="2" t="inlineStr">
+        <is>
+          <t>262</t>
+        </is>
+      </c>
+      <c r="F19" s="2" t="inlineStr">
+        <is>
+          <t>545</t>
+        </is>
+      </c>
+      <c r="G19" s="2" t="inlineStr">
+        <is>
+          <t>291</t>
+        </is>
+      </c>
+      <c r="H19" s="2" t="inlineStr">
+        <is>
+          <t>300</t>
+        </is>
+      </c>
+      <c r="I19" s="2" t="inlineStr">
+        <is>
+          <t>296</t>
+        </is>
+      </c>
+      <c r="J19" s="2" t="inlineStr">
+        <is>
+          <t>799</t>
+        </is>
+      </c>
+      <c r="K19" s="2" t="inlineStr">
+        <is>
+          <t>510</t>
+        </is>
+      </c>
+      <c r="L19" s="2" t="inlineStr">
+        <is>
+          <t>527</t>
+        </is>
+      </c>
+      <c r="M19" s="2" t="inlineStr">
+        <is>
+          <t>558</t>
+        </is>
+      </c>
+      <c r="N19" s="2" t="inlineStr">
+        <is>
+          <t>1344</t>
+        </is>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" s="1" t="n"/>
+      <c r="B20" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C20" s="2" t="inlineStr">
+        <is>
+          <t>212498</t>
+        </is>
+      </c>
+      <c r="D20" s="2" t="inlineStr">
+        <is>
+          <t>251638</t>
+        </is>
+      </c>
+      <c r="E20" s="2" t="inlineStr">
+        <is>
+          <t>269173</t>
+        </is>
+      </c>
+      <c r="F20" s="2" t="inlineStr">
+        <is>
+          <t>349911</t>
+        </is>
+      </c>
+      <c r="G20" s="2" t="inlineStr">
+        <is>
+          <t>267894</t>
+        </is>
+      </c>
+      <c r="H20" s="2" t="inlineStr">
+        <is>
+          <t>309614</t>
+        </is>
+      </c>
+      <c r="I20" s="2" t="inlineStr">
+        <is>
+          <t>317663</t>
+        </is>
+      </c>
+      <c r="J20" s="2" t="inlineStr">
+        <is>
+          <t>593929</t>
+        </is>
+      </c>
+      <c r="K20" s="2" t="inlineStr">
+        <is>
+          <t>480392</t>
+        </is>
+      </c>
+      <c r="L20" s="2" t="inlineStr">
+        <is>
+          <t>561251</t>
+        </is>
+      </c>
+      <c r="M20" s="2" t="inlineStr">
+        <is>
+          <t>586836</t>
+        </is>
+      </c>
+      <c r="N20" s="2" t="inlineStr">
+        <is>
+          <t>943840</t>
+        </is>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" s="1" t="n"/>
+      <c r="B21" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C21" s="2" t="inlineStr">
+        <is>
+          <t>196452; 226848</t>
+        </is>
+      </c>
+      <c r="D21" s="2" t="inlineStr">
+        <is>
+          <t>236964; 266796</t>
+        </is>
+      </c>
+      <c r="E21" s="2" t="inlineStr">
+        <is>
+          <t>252798; 281688</t>
+        </is>
+      </c>
+      <c r="F21" s="2" t="inlineStr">
+        <is>
+          <t>341260; 355771</t>
+        </is>
+      </c>
+      <c r="G21" s="2" t="inlineStr">
+        <is>
+          <t>253307; 282406</t>
+        </is>
+      </c>
+      <c r="H21" s="2" t="inlineStr">
+        <is>
+          <t>296592; 321016</t>
+        </is>
+      </c>
+      <c r="I21" s="2" t="inlineStr">
+        <is>
+          <t>302592; 330467</t>
+        </is>
+      </c>
+      <c r="J21" s="2" t="inlineStr">
+        <is>
+          <t>584375; 602506</t>
+        </is>
+      </c>
+      <c r="K21" s="2" t="inlineStr">
+        <is>
+          <t>459943; 500197</t>
+        </is>
+      </c>
+      <c r="L21" s="2" t="inlineStr">
+        <is>
+          <t>541435; 577648</t>
+        </is>
+      </c>
+      <c r="M21" s="2" t="inlineStr">
+        <is>
+          <t>564057; 604209</t>
+        </is>
+      </c>
+      <c r="N21" s="2" t="inlineStr">
+        <is>
+          <t>930999; 959083</t>
+        </is>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" s="1" t="inlineStr">
+        <is>
+          <t>75 o más</t>
+        </is>
+      </c>
+      <c r="B22" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C22" s="2" t="inlineStr">
+        <is>
+          <t>165</t>
+        </is>
+      </c>
+      <c r="D22" s="2" t="inlineStr">
+        <is>
+          <t>189</t>
+        </is>
+      </c>
+      <c r="E22" s="2" t="inlineStr">
+        <is>
+          <t>252</t>
+        </is>
+      </c>
+      <c r="F22" s="2" t="inlineStr">
+        <is>
+          <t>441</t>
+        </is>
+      </c>
+      <c r="G22" s="2" t="inlineStr">
+        <is>
+          <t>226</t>
+        </is>
+      </c>
+      <c r="H22" s="2" t="inlineStr">
+        <is>
+          <t>297</t>
+        </is>
+      </c>
+      <c r="I22" s="2" t="inlineStr">
+        <is>
+          <t>238</t>
+        </is>
+      </c>
+      <c r="J22" s="2" t="inlineStr">
+        <is>
+          <t>846</t>
+        </is>
+      </c>
+      <c r="K22" s="2" t="inlineStr">
+        <is>
+          <t>391</t>
+        </is>
+      </c>
+      <c r="L22" s="2" t="inlineStr">
+        <is>
+          <t>486</t>
+        </is>
+      </c>
+      <c r="M22" s="2" t="inlineStr">
+        <is>
+          <t>490</t>
+        </is>
+      </c>
+      <c r="N22" s="2" t="inlineStr">
+        <is>
+          <t>1287</t>
+        </is>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" s="1" t="n"/>
+      <c r="B23" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C23" s="2" t="inlineStr">
+        <is>
+          <t>157951</t>
+        </is>
+      </c>
+      <c r="D23" s="2" t="inlineStr">
+        <is>
+          <t>210441</t>
+        </is>
+      </c>
+      <c r="E23" s="2" t="inlineStr">
+        <is>
+          <t>213850</t>
+        </is>
+      </c>
+      <c r="F23" s="2" t="inlineStr">
+        <is>
+          <t>271604</t>
+        </is>
+      </c>
+      <c r="G23" s="2" t="inlineStr">
+        <is>
+          <t>258279</t>
+        </is>
+      </c>
+      <c r="H23" s="2" t="inlineStr">
+        <is>
+          <t>329648</t>
+        </is>
+      </c>
+      <c r="I23" s="2" t="inlineStr">
+        <is>
+          <t>316549</t>
+        </is>
+      </c>
+      <c r="J23" s="2" t="inlineStr">
+        <is>
+          <t>406939</t>
+        </is>
+      </c>
+      <c r="K23" s="2" t="inlineStr">
+        <is>
+          <t>416229</t>
+        </is>
+      </c>
+      <c r="L23" s="2" t="inlineStr">
+        <is>
+          <t>540088</t>
+        </is>
+      </c>
+      <c r="M23" s="2" t="inlineStr">
+        <is>
+          <t>530399</t>
+        </is>
+      </c>
+      <c r="N23" s="2" t="inlineStr">
+        <is>
+          <t>678542</t>
+        </is>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" s="1" t="n"/>
+      <c r="B24" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C24" s="2" t="inlineStr">
+        <is>
+          <t>143112; 167941</t>
+        </is>
+      </c>
+      <c r="D24" s="2" t="inlineStr">
+        <is>
+          <t>195051; 221469</t>
+        </is>
+      </c>
+      <c r="E24" s="2" t="inlineStr">
+        <is>
+          <t>201796; 224192</t>
+        </is>
+      </c>
+      <c r="F24" s="2" t="inlineStr">
+        <is>
+          <t>265461; 275881</t>
+        </is>
+      </c>
+      <c r="G24" s="2" t="inlineStr">
+        <is>
+          <t>241631; 274813</t>
+        </is>
+      </c>
+      <c r="H24" s="2" t="inlineStr">
+        <is>
+          <t>314344; 342546</t>
+        </is>
+      </c>
+      <c r="I24" s="2" t="inlineStr">
+        <is>
+          <t>296845; 333683</t>
+        </is>
+      </c>
+      <c r="J24" s="2" t="inlineStr">
+        <is>
+          <t>399979; 412020</t>
+        </is>
+      </c>
+      <c r="K24" s="2" t="inlineStr">
+        <is>
+          <t>397974; 438798</t>
+        </is>
+      </c>
+      <c r="L24" s="2" t="inlineStr">
+        <is>
+          <t>519364; 558638</t>
+        </is>
+      </c>
+      <c r="M24" s="2" t="inlineStr">
+        <is>
+          <t>507975; 548974</t>
+        </is>
+      </c>
+      <c r="N24" s="2" t="inlineStr">
+        <is>
+          <t>669468; 684922</t>
+        </is>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" s="1" t="inlineStr">
+        <is>
+          <t>Total</t>
+        </is>
+      </c>
+      <c r="B25" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C25" s="2" t="inlineStr">
+        <is>
+          <t>2030</t>
+        </is>
+      </c>
+      <c r="D25" s="2" t="inlineStr">
+        <is>
+          <t>2262</t>
+        </is>
+      </c>
+      <c r="E25" s="2" t="inlineStr">
+        <is>
+          <t>2334</t>
+        </is>
+      </c>
+      <c r="F25" s="2" t="inlineStr">
+        <is>
+          <t>3199</t>
+        </is>
+      </c>
+      <c r="G25" s="2" t="inlineStr">
+        <is>
+          <t>2332</t>
+        </is>
+      </c>
+      <c r="H25" s="2" t="inlineStr">
+        <is>
+          <t>2614</t>
+        </is>
+      </c>
+      <c r="I25" s="2" t="inlineStr">
+        <is>
+          <t>2557</t>
+        </is>
+      </c>
+      <c r="J25" s="2" t="inlineStr">
+        <is>
+          <t>5157</t>
+        </is>
+      </c>
+      <c r="K25" s="2" t="inlineStr">
+        <is>
+          <t>4362</t>
+        </is>
+      </c>
+      <c r="L25" s="2" t="inlineStr">
+        <is>
+          <t>4876</t>
+        </is>
+      </c>
+      <c r="M25" s="2" t="inlineStr">
+        <is>
+          <t>4891</t>
+        </is>
+      </c>
+      <c r="N25" s="2" t="inlineStr">
+        <is>
+          <t>8356</t>
+        </is>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" s="1" t="n"/>
+      <c r="B26" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C26" s="2" t="inlineStr">
+        <is>
+          <t>2071131</t>
+        </is>
+      </c>
+      <c r="D26" s="2" t="inlineStr">
+        <is>
+          <t>2433291</t>
+        </is>
+      </c>
+      <c r="E26" s="2" t="inlineStr">
+        <is>
+          <t>2441609</t>
+        </is>
+      </c>
+      <c r="F26" s="2" t="inlineStr">
+        <is>
+          <t>3263898</t>
+        </is>
+      </c>
+      <c r="G26" s="2" t="inlineStr">
+        <is>
+          <t>2401570</t>
+        </is>
+      </c>
+      <c r="H26" s="2" t="inlineStr">
+        <is>
+          <t>2823037</t>
+        </is>
+      </c>
+      <c r="I26" s="2" t="inlineStr">
+        <is>
+          <t>2730794</t>
+        </is>
+      </c>
+      <c r="J26" s="2" t="inlineStr">
+        <is>
+          <t>3508214</t>
+        </is>
+      </c>
+      <c r="K26" s="2" t="inlineStr">
+        <is>
+          <t>4472702</t>
+        </is>
+      </c>
+      <c r="L26" s="2" t="inlineStr">
+        <is>
+          <t>5256329</t>
+        </is>
+      </c>
+      <c r="M26" s="2" t="inlineStr">
+        <is>
+          <t>5172404</t>
+        </is>
+      </c>
+      <c r="N26" s="2" t="inlineStr">
+        <is>
+          <t>6772113</t>
+        </is>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" s="1" t="n"/>
+      <c r="B27" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C27" s="2" t="inlineStr">
+        <is>
+          <t>2020001; 2127929</t>
+        </is>
+      </c>
+      <c r="D27" s="2" t="inlineStr">
+        <is>
+          <t>2374322; 2489775</t>
+        </is>
+      </c>
+      <c r="E27" s="2" t="inlineStr">
+        <is>
+          <t>2387089; 2492301</t>
+        </is>
+      </c>
+      <c r="F27" s="2" t="inlineStr">
+        <is>
+          <t>3224246; 3309373</t>
+        </is>
+      </c>
+      <c r="G27" s="2" t="inlineStr">
+        <is>
+          <t>2348146; 2448706</t>
+        </is>
+      </c>
+      <c r="H27" s="2" t="inlineStr">
+        <is>
+          <t>2772284; 2869809</t>
+        </is>
+      </c>
+      <c r="I27" s="2" t="inlineStr">
+        <is>
+          <t>2674960; 2783475</t>
+        </is>
+      </c>
+      <c r="J27" s="2" t="inlineStr">
+        <is>
+          <t>3479048; 3535562</t>
+        </is>
+      </c>
+      <c r="K27" s="2" t="inlineStr">
+        <is>
+          <t>4399546; 4548708</t>
+        </is>
+      </c>
+      <c r="L27" s="2" t="inlineStr">
+        <is>
+          <t>5183656; 5327193</t>
+        </is>
+      </c>
+      <c r="M27" s="2" t="inlineStr">
+        <is>
+          <t>5100246; 5252136</t>
+        </is>
+      </c>
+      <c r="N27" s="2" t="inlineStr">
+        <is>
+          <t>6722945; 6821331</t>
+        </is>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" t="inlineStr">
+        <is>
+          <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
+        </is>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="12">
+    <mergeCell ref="A7:A9"/>
+    <mergeCell ref="A4:A6"/>
+    <mergeCell ref="A16:A18"/>
+    <mergeCell ref="A10:A12"/>
+    <mergeCell ref="A25:A27"/>
+    <mergeCell ref="A19:A21"/>
+    <mergeCell ref="A1:B2"/>
+    <mergeCell ref="C1:F1"/>
+    <mergeCell ref="G1:J1"/>
+    <mergeCell ref="K1:N1"/>
+    <mergeCell ref="A22:A24"/>
+    <mergeCell ref="A13:A15"/>
+  </mergeCells>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
 </file>